--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>572401.6599505044</v>
+        <v>568253.5465692249</v>
       </c>
     </row>
     <row r="7">
@@ -964,7 +964,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343069</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -977,16 +977,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>36.39025468426205</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>36.39025468426205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>41.31500304752733</v>
-      </c>
-      <c r="D7" t="n">
-        <v>41.31500304752733</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>17.84229754998328</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>41.31500304752733</v>
       </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>17.84229754998328</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1211,59 +1211,59 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="F9" t="n">
+        <v>36.39025468426209</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.8422975499833</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="G10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>18.54795713427877</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>321.9370827829815</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>143.5107923748719</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1539,10 +1539,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>131.0206200144773</v>
@@ -1581,10 +1581,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>143.9351058223807</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>137.3774348180845</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>93.16613052254591</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1621,10 +1621,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>170.8454278428334</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>26.70110018160173</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
@@ -1827,13 +1827,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>69.9217980954888</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>409.2510273882594</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>343.2534342097761</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H18" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>49.34995949258573</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>98.26917855572354</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>339.1724141262563</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>105.5188043066306</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>22.68454702280289</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -2295,7 +2295,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>68.32956683724598</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>237.9434330462674</v>
+        <v>106.8256210757702</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>39.44148254646629</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.5343934949986</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4778071469916</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2478,25 +2478,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>97.60553225040445</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0815596564106</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>130.9120715526785</v>
       </c>
       <c r="I25" t="n">
-        <v>62.09717796025117</v>
+        <v>62.09717796025118</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>262.9357786263469</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -2566,13 +2566,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>420.5009803389058</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>127.3529151624435</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>266.7455925805594</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>39.44148254646628</v>
+        <v>39.44148254646629</v>
       </c>
       <c r="T26" t="n">
         <v>209.5343934949986</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2730,10 +2730,10 @@
         <v>163.0815596564106</v>
       </c>
       <c r="H28" t="n">
-        <v>130.9120715526785</v>
+        <v>110.149942059887</v>
       </c>
       <c r="I28" t="n">
-        <v>62.09717796025117</v>
+        <v>62.09717796025118</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>239.7725864394256</v>
       </c>
       <c r="U28" t="n">
-        <v>275.602099690261</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.719081915902</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>215.9607307362617</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>39.44148254646628</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>182.8423068709399</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>24.37337749638543</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0815596564106</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7695048068526</v>
       </c>
       <c r="T31" t="n">
         <v>239.7725864394256</v>
@@ -3015,10 +3015,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>242.9378371199217</v>
+        <v>18.54520042030655</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3031,19 +3031,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>234.7707400381898</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>39.44148254646628</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>216.713758309286</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>148.2355777128688</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3198,7 +3198,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>58.07181015786297</v>
       </c>
       <c r="G34" t="n">
         <v>163.0815596564106</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.09717796025117</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7695048068526</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>239.7725864394256</v>
@@ -3268,19 +3268,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>251.2318180733136</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.4804466984472</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>219.4856284895839</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3441,10 +3441,10 @@
         <v>163.0815596564106</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>130.9120715526785</v>
       </c>
       <c r="I37" t="n">
-        <v>62.09717796025117</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>108.2773006390349</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.7725864394256</v>
+        <v>148.275040023477</v>
       </c>
       <c r="U37" t="n">
         <v>275.602099690261</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3511,16 +3511,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.4804466984472</v>
+        <v>81.65548192344752</v>
       </c>
       <c r="H38" t="n">
-        <v>246.6662488111639</v>
+        <v>266.7455925805594</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4778071469916</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>58.99726137347167</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0815596564106</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>130.9120715526785</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.09717796025118</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>239.7725864394256</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.602099690261</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>161.8964968064068</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>389.7744570478799</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>39.44148254646628</v>
+        <v>39.44148254646629</v>
       </c>
       <c r="T41" t="n">
-        <v>209.5343934949986</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>157.8867829312791</v>
       </c>
     </row>
     <row r="42">
@@ -3903,16 +3903,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>82.62934461535903</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>86.47055545663663</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>39.44148254646628</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>222.8819909098503</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>143.4008243244736</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4140,16 +4140,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>55.6935525793982</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0815596564106</v>
+        <v>57.68051881419949</v>
       </c>
       <c r="H46" t="n">
         <v>130.9120715526785</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7695048068526</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.7725864394256</v>
@@ -4200,10 +4200,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4546,10 +4546,10 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064259</v>
+        <v>88.73594738064257</v>
       </c>
       <c r="D5" t="n">
-        <v>56.86656659549116</v>
+        <v>56.86656659549115</v>
       </c>
       <c r="E5" t="n">
         <v>27.13222579419039</v>
@@ -4612,7 +4612,7 @@
         <v>149.3429022612615</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.097182601319</v>
+        <v>145.0971826013189</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.305200243802187</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C6" t="n">
-        <v>3.305200243802187</v>
+        <v>86.76985286506954</v>
       </c>
       <c r="D6" t="n">
-        <v>3.305200243802187</v>
+        <v>45.03752655443586</v>
       </c>
       <c r="E6" t="n">
-        <v>3.305200243802187</v>
+        <v>45.03752655443586</v>
       </c>
       <c r="F6" t="n">
         <v>3.305200243802187</v>
@@ -4643,55 +4643,55 @@
         <v>3.305200243802187</v>
       </c>
       <c r="I6" t="n">
-        <v>5.70652791044117</v>
+        <v>31.77020107089877</v>
       </c>
       <c r="J6" t="n">
-        <v>30.25701070378118</v>
+        <v>38.35962772912429</v>
       </c>
       <c r="K6" t="n">
-        <v>71.15886372083324</v>
+        <v>49.62200743646791</v>
       </c>
       <c r="L6" t="n">
-        <v>86.30252310133805</v>
+        <v>64.76566681697273</v>
       </c>
       <c r="M6" t="n">
-        <v>103.9744593181195</v>
+        <v>82.43760303375414</v>
       </c>
       <c r="N6" t="n">
-        <v>122.1141191020717</v>
+        <v>100.5772628177064</v>
       </c>
       <c r="O6" t="n">
-        <v>138.7083639341946</v>
+        <v>117.1715076498293</v>
       </c>
       <c r="P6" t="n">
-        <v>152.0267083864402</v>
+        <v>130.4898521020749</v>
       </c>
       <c r="Q6" t="n">
-        <v>160.9296689482059</v>
+        <v>139.3928126638406</v>
       </c>
       <c r="R6" t="n">
         <v>165.2600121901093</v>
       </c>
       <c r="S6" t="n">
-        <v>165.2600121901093</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="T6" t="n">
-        <v>165.2600121901093</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="U6" t="n">
-        <v>165.2600121901093</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V6" t="n">
-        <v>123.5276858794757</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="W6" t="n">
-        <v>81.79535956884197</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="X6" t="n">
-        <v>40.0630332582083</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.305200243802187</v>
+        <v>128.5021791757032</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>104.7923756428304</v>
+        <v>45.03752655443586</v>
       </c>
       <c r="C7" t="n">
-        <v>63.06004933219675</v>
+        <v>45.03752655443586</v>
       </c>
       <c r="D7" t="n">
-        <v>21.32772302156307</v>
+        <v>45.03752655443586</v>
       </c>
       <c r="E7" t="n">
-        <v>21.32772302156307</v>
+        <v>45.03752655443586</v>
       </c>
       <c r="F7" t="n">
-        <v>21.32772302156307</v>
+        <v>45.03752655443586</v>
       </c>
       <c r="G7" t="n">
-        <v>3.305200243802187</v>
+        <v>45.03752655443586</v>
       </c>
       <c r="H7" t="n">
-        <v>3.305200243802187</v>
+        <v>45.03752655443586</v>
       </c>
       <c r="I7" t="n">
         <v>3.305200243802187</v>
       </c>
       <c r="J7" t="n">
-        <v>7.439194768028655</v>
+        <v>9.104021427429016</v>
       </c>
       <c r="K7" t="n">
-        <v>14.23261768427069</v>
+        <v>50.00587444448107</v>
       </c>
       <c r="L7" t="n">
-        <v>22.9258601234117</v>
+        <v>90.90772746153313</v>
       </c>
       <c r="M7" t="n">
-        <v>35.48248925181043</v>
+        <v>100.0735327310763</v>
       </c>
       <c r="N7" t="n">
-        <v>76.3843422688625</v>
+        <v>109.0213956378918</v>
       </c>
       <c r="O7" t="n">
         <v>117.2861952859146</v>
@@ -4758,19 +4758,19 @@
         <v>146.5247019534641</v>
       </c>
       <c r="U7" t="n">
-        <v>146.5247019534641</v>
+        <v>104.7923756428304</v>
       </c>
       <c r="V7" t="n">
         <v>104.7923756428304</v>
       </c>
       <c r="W7" t="n">
-        <v>104.7923756428304</v>
+        <v>63.06004933219675</v>
       </c>
       <c r="X7" t="n">
-        <v>104.7923756428304</v>
+        <v>45.03752655443586</v>
       </c>
       <c r="Y7" t="n">
-        <v>104.7923756428304</v>
+        <v>45.03752655443586</v>
       </c>
     </row>
     <row r="8">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.76985286506957</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="C9" t="n">
-        <v>86.76985286506957</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="D9" t="n">
-        <v>86.76985286506957</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="E9" t="n">
-        <v>45.03752655443588</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="F9" t="n">
         <v>3.305200243802188</v>
@@ -4880,25 +4880,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>5.706527910441171</v>
+        <v>31.77020107089877</v>
       </c>
       <c r="J9" t="n">
-        <v>12.29595456866669</v>
+        <v>59.89648401348967</v>
       </c>
       <c r="K9" t="n">
-        <v>53.19780758571876</v>
+        <v>71.1588637208333</v>
       </c>
       <c r="L9" t="n">
-        <v>68.34146696622358</v>
+        <v>86.30252310133811</v>
       </c>
       <c r="M9" t="n">
-        <v>86.01340318300498</v>
+        <v>103.9744593181195</v>
       </c>
       <c r="N9" t="n">
-        <v>104.1530629669572</v>
+        <v>122.1141191020718</v>
       </c>
       <c r="O9" t="n">
-        <v>120.7473077990801</v>
+        <v>138.7083639341947</v>
       </c>
       <c r="P9" t="n">
         <v>152.0267083864403</v>
@@ -4910,25 +4910,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="W9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="X9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="Y9" t="n">
-        <v>128.5021791757032</v>
+        <v>123.5276858794757</v>
       </c>
     </row>
     <row r="10">
@@ -4941,16 +4941,16 @@
         <v>128.5021791757032</v>
       </c>
       <c r="C10" t="n">
-        <v>128.5021791757032</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D10" t="n">
-        <v>128.5021791757032</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E10" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G10" t="n">
         <v>3.305200243802188</v>
@@ -4962,22 +4962,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>44.20705326085427</v>
+        <v>7.439194768028656</v>
       </c>
       <c r="K10" t="n">
-        <v>51.00047617709629</v>
+        <v>14.23261768427069</v>
       </c>
       <c r="L10" t="n">
-        <v>59.69371861623731</v>
+        <v>22.9258601234117</v>
       </c>
       <c r="M10" t="n">
-        <v>68.85952388578045</v>
+        <v>32.09166539295484</v>
       </c>
       <c r="N10" t="n">
-        <v>77.80738679259596</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O10" t="n">
-        <v>86.07218644061874</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P10" t="n">
         <v>124.3581591730573</v>
@@ -4989,25 +4989,25 @@
         <v>146.5247019534642</v>
       </c>
       <c r="S10" t="n">
-        <v>146.5247019534642</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="T10" t="n">
-        <v>146.5247019534642</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="U10" t="n">
-        <v>146.5247019534642</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="V10" t="n">
-        <v>146.5247019534642</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="W10" t="n">
-        <v>146.5247019534642</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="X10" t="n">
-        <v>146.5247019534642</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="Y10" t="n">
-        <v>146.5247019534642</v>
+        <v>128.5021791757032</v>
       </c>
     </row>
     <row r="11">
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1782.900983623584</v>
+        <v>900.0309721598754</v>
       </c>
       <c r="C11" t="n">
-        <v>1344.758510807007</v>
+        <v>461.8884993432987</v>
       </c>
       <c r="D11" t="n">
-        <v>908.8487259814518</v>
+        <v>461.8884993432987</v>
       </c>
       <c r="E11" t="n">
-        <v>475.073981139747</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
         <v>2043.069798152528</v>
@@ -5077,16 +5077,16 @@
         <v>2108.089956131646</v>
       </c>
       <c r="V11" t="n">
-        <v>2108.089956131646</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W11" t="n">
-        <v>2108.089956131646</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="X11" t="n">
-        <v>2108.089956131646</v>
+        <v>1326.330542644783</v>
       </c>
       <c r="Y11" t="n">
-        <v>2108.089956131646</v>
+        <v>1326.330542644783</v>
       </c>
     </row>
     <row r="12">
@@ -5129,7 +5129,7 @@
         <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.291841223631</v>
+        <v>578.2818952811308</v>
       </c>
       <c r="C13" t="n">
-        <v>919.7301297068562</v>
+        <v>578.2818952811308</v>
       </c>
       <c r="D13" t="n">
-        <v>753.852136908379</v>
+        <v>412.4039024826535</v>
       </c>
       <c r="E13" t="n">
-        <v>584.0941331591162</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G13" t="n">
         <v>242.6458987333908</v>
@@ -5229,22 +5229,22 @@
         <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>2070.512043171788</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>2070.512043171788</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1783.556535042219</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W13" t="n">
-        <v>1511.53013062851</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X13" t="n">
-        <v>1511.53013062851</v>
+        <v>997.5201846860098</v>
       </c>
       <c r="Y13" t="n">
-        <v>1284.110459942618</v>
+        <v>770.100514000118</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1955.472122858769</v>
+        <v>2013.98275358362</v>
       </c>
       <c r="C14" t="n">
-        <v>1517.329650042193</v>
+        <v>2013.98275358362</v>
       </c>
       <c r="D14" t="n">
-        <v>1081.419865216637</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="E14" t="n">
-        <v>647.6451203749323</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F14" t="n">
-        <v>219.77769078414</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L14" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M14" t="n">
         <v>1131.588690455489</v>
@@ -5302,28 +5302,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447736</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W14" t="n">
-        <v>1955.472122858769</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X14" t="n">
-        <v>1955.472122858769</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y14" t="n">
-        <v>1955.472122858769</v>
+        <v>2108.089956131646</v>
       </c>
     </row>
     <row r="15">
@@ -5351,7 +5351,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
         <v>81.42328772043084</v>
@@ -5360,13 +5360,13 @@
         <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987878</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.291841223631</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="C16" t="n">
-        <v>919.7301297068562</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="D16" t="n">
-        <v>753.852136908379</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E16" t="n">
-        <v>584.0941331591162</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F16" t="n">
-        <v>407.3870791208724</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G16" t="n">
         <v>242.6458987333908</v>
@@ -5433,55 +5433,55 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>358.0754347909396</v>
       </c>
       <c r="L16" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M16" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.854607180194</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951971</v>
+        <v>2333.356769183492</v>
       </c>
       <c r="T16" t="n">
-        <v>1973.653814855378</v>
+        <v>2091.109545086899</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.267182904121</v>
+        <v>1812.722913135642</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774551</v>
+        <v>1525.767405006072</v>
       </c>
       <c r="W16" t="n">
-        <v>1337.683595890219</v>
+        <v>1253.741000592364</v>
       </c>
       <c r="X16" t="n">
-        <v>1092.291841223631</v>
+        <v>1008.349245925776</v>
       </c>
       <c r="Y16" t="n">
-        <v>1092.291841223631</v>
+        <v>780.9295752398846</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1754.536245353315</v>
+        <v>1129.815670475324</v>
       </c>
       <c r="C17" t="n">
-        <v>1316.393772536738</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D17" t="n">
-        <v>880.4839877111824</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E17" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F17" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K17" t="n">
         <v>512.3249274228017</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867021</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M17" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
         <v>2043.069798152528</v>
@@ -5539,28 +5539,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>2101.25688596925</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V17" t="n">
-        <v>2101.25688596925</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W17" t="n">
-        <v>2101.25688596925</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="X17" t="n">
-        <v>1754.536245353315</v>
+        <v>1538.101794175671</v>
       </c>
       <c r="Y17" t="n">
-        <v>1754.536245353315</v>
+        <v>1129.815670475324</v>
       </c>
     </row>
     <row r="18">
@@ -5588,22 +5588,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043167</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
-        <v>175.3166270668988</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210689</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960912</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987884</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>616.0817647851411</v>
+        <v>795.2066002154656</v>
       </c>
       <c r="C19" t="n">
-        <v>443.520053268366</v>
+        <v>622.6448886986906</v>
       </c>
       <c r="D19" t="n">
-        <v>443.520053268366</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E19" t="n">
-        <v>273.7620495191033</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F19" t="n">
-        <v>97.0549954808595</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>430.2377900463795</v>
+        <v>359.5348022487598</v>
       </c>
       <c r="L19" t="n">
-        <v>554.1085916646774</v>
+        <v>901.6154856350188</v>
       </c>
       <c r="M19" t="n">
-        <v>1138.289667082992</v>
+        <v>1485.796561053334</v>
       </c>
       <c r="N19" t="n">
-        <v>1708.047382044526</v>
+        <v>2055.554276014868</v>
       </c>
       <c r="O19" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P19" t="n">
         <v>2274.089213540313</v>
@@ -5697,28 +5697,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447736</v>
+        <v>2261.065780926804</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351143</v>
+        <v>2018.81855683021</v>
       </c>
       <c r="U19" t="n">
-        <v>1839.693721399886</v>
+        <v>2018.81855683021</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.738213270316</v>
+        <v>1731.863048700641</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.711808856608</v>
+        <v>1459.836644286932</v>
       </c>
       <c r="X19" t="n">
-        <v>1035.32005419002</v>
+        <v>1214.444889620345</v>
       </c>
       <c r="Y19" t="n">
-        <v>807.9003835041283</v>
+        <v>987.0252189344528</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1889.485634438362</v>
+        <v>1255.814852063653</v>
       </c>
       <c r="C20" t="n">
-        <v>1451.343161621786</v>
+        <v>817.6723792470766</v>
       </c>
       <c r="D20" t="n">
-        <v>1015.43337679623</v>
+        <v>817.6723792470766</v>
       </c>
       <c r="E20" t="n">
-        <v>581.6586319545254</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>153.7912023637331</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G20" t="n">
         <v>47.20655154895472</v>
@@ -5749,13 +5749,13 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J20" t="n">
         <v>276.0532770435805</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L20" t="n">
         <v>805.440802286702</v>
@@ -5782,22 +5782,22 @@
         <v>2360.327577447736</v>
       </c>
       <c r="T20" t="n">
-        <v>2148.556325916848</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U20" t="n">
-        <v>1889.485634438362</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="V20" t="n">
-        <v>1889.485634438362</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="W20" t="n">
-        <v>1889.485634438362</v>
+        <v>2101.25688596925</v>
       </c>
       <c r="X20" t="n">
-        <v>1889.485634438362</v>
+        <v>1682.114422548561</v>
       </c>
       <c r="Y20" t="n">
-        <v>1889.485634438362</v>
+        <v>1682.114422548561</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>926.413848425154</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C22" t="n">
-        <v>753.852136908379</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D22" t="n">
-        <v>753.852136908379</v>
+        <v>133.2155219741237</v>
       </c>
       <c r="E22" t="n">
-        <v>584.0941331591162</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="F22" t="n">
-        <v>407.3870791208724</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H22" t="n">
         <v>110.3018381127067</v>
@@ -5910,25 +5910,25 @@
         <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545214</v>
+        <v>464.1452239003828</v>
       </c>
       <c r="L22" t="n">
-        <v>1106.33113894078</v>
+        <v>588.0160255186807</v>
       </c>
       <c r="M22" t="n">
-        <v>1412.355695376305</v>
+        <v>718.6204178572102</v>
       </c>
       <c r="N22" t="n">
-        <v>1539.854607180194</v>
+        <v>1288.378132818744</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5943,19 +5943,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1904.634050373311</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1617.678542243741</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W22" t="n">
-        <v>1345.652137830033</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X22" t="n">
-        <v>1345.652137830033</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y22" t="n">
-        <v>1118.232467144141</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1162.290653615581</v>
+        <v>1457.715848892739</v>
       </c>
       <c r="C23" t="n">
-        <v>724.148180799004</v>
+        <v>1019.573376076163</v>
       </c>
       <c r="D23" t="n">
-        <v>288.2383959734485</v>
+        <v>583.6635912506072</v>
       </c>
       <c r="E23" t="n">
-        <v>288.2383959734485</v>
+        <v>583.6635912506072</v>
       </c>
       <c r="F23" t="n">
-        <v>288.2383959734485</v>
+        <v>155.7961616598149</v>
       </c>
       <c r="G23" t="n">
-        <v>288.2383959734485</v>
+        <v>155.7961616598149</v>
       </c>
       <c r="H23" t="n">
         <v>47.89149390651167</v>
       </c>
       <c r="I23" t="n">
-        <v>120.1302617717065</v>
+        <v>120.130261771707</v>
       </c>
       <c r="J23" t="n">
-        <v>280.0640053432102</v>
+        <v>280.0640053432107</v>
       </c>
       <c r="K23" t="n">
-        <v>519.7632284108097</v>
+        <v>519.76322841081</v>
       </c>
       <c r="L23" t="n">
-        <v>817.1313102813535</v>
+        <v>817.1313102813539</v>
       </c>
       <c r="M23" t="n">
         <v>1148.010598057607</v>
       </c>
       <c r="N23" t="n">
-        <v>1484.243858633725</v>
+        <v>1484.243858633726</v>
       </c>
       <c r="O23" t="n">
         <v>1801.739392143005</v>
@@ -6016,25 +6016,25 @@
         <v>2394.574695325583</v>
       </c>
       <c r="S23" t="n">
-        <v>2394.574695325583</v>
+        <v>2354.734813965516</v>
       </c>
       <c r="T23" t="n">
-        <v>2394.574695325583</v>
+        <v>2143.083911445316</v>
       </c>
       <c r="U23" t="n">
-        <v>2394.574695325583</v>
+        <v>1884.015419377647</v>
       </c>
       <c r="V23" t="n">
-        <v>2394.574695325583</v>
+        <v>1884.015419377647</v>
       </c>
       <c r="W23" t="n">
-        <v>1989.719240736617</v>
+        <v>1884.015419377647</v>
       </c>
       <c r="X23" t="n">
-        <v>1570.576777315927</v>
+        <v>1884.015419377647</v>
       </c>
       <c r="Y23" t="n">
-        <v>1162.290653615581</v>
+        <v>1884.015419377647</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1260.828372093072</v>
+        <v>543.0994713200017</v>
       </c>
       <c r="C24" t="n">
-        <v>1154.371910929714</v>
+        <v>436.643010156644</v>
       </c>
       <c r="D24" t="n">
-        <v>1059.281622076268</v>
+        <v>341.5527213031973</v>
       </c>
       <c r="E24" t="n">
-        <v>965.1612074032214</v>
+        <v>247.432306630151</v>
       </c>
       <c r="F24" t="n">
-        <v>881.7773690193831</v>
+        <v>164.0484682463126</v>
       </c>
       <c r="G24" t="n">
-        <v>797.4209784657064</v>
+        <v>79.69207769263602</v>
       </c>
       <c r="H24" t="n">
-        <v>765.6203946795821</v>
+        <v>47.89149390651167</v>
       </c>
       <c r="I24" t="n">
-        <v>800.3335101255017</v>
+        <v>58.47613193451087</v>
       </c>
       <c r="J24" t="n">
-        <v>895.588952140859</v>
+        <v>153.7315739498681</v>
       </c>
       <c r="K24" t="n">
-        <v>1058.395674608683</v>
+        <v>316.5382964176925</v>
       </c>
       <c r="L24" t="n">
-        <v>1277.309404564129</v>
+        <v>535.4520263731384</v>
       </c>
       <c r="M24" t="n">
-        <v>1508.642924510639</v>
+        <v>790.9140237375683</v>
       </c>
       <c r="N24" t="n">
-        <v>1770.866240794408</v>
+        <v>1053.137340021337</v>
       </c>
       <c r="O24" t="n">
-        <v>2010.749345710942</v>
+        <v>1293.020444937872</v>
       </c>
       <c r="P24" t="n">
-        <v>2203.276685874566</v>
+        <v>1485.547785101496</v>
       </c>
       <c r="Q24" t="n">
-        <v>2331.976114146928</v>
+        <v>1614.247213373858</v>
       </c>
       <c r="R24" t="n">
-        <v>2394.574695325583</v>
+        <v>1676.845794552513</v>
       </c>
       <c r="S24" t="n">
-        <v>2350.226893861207</v>
+        <v>1632.497993088136</v>
       </c>
       <c r="T24" t="n">
-        <v>2224.194629781932</v>
+        <v>1506.465729008862</v>
       </c>
       <c r="U24" t="n">
-        <v>2047.925760359541</v>
+        <v>1330.196859586471</v>
       </c>
       <c r="V24" t="n">
-        <v>1848.808242421541</v>
+        <v>1131.07934164847</v>
       </c>
       <c r="W24" t="n">
-        <v>1663.485488154735</v>
+        <v>945.7565873816641</v>
       </c>
       <c r="X24" t="n">
-        <v>1508.618052393615</v>
+        <v>790.8891516205441</v>
       </c>
       <c r="Y24" t="n">
-        <v>1382.132273172835</v>
+        <v>664.4033723997649</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>506.1706266537286</v>
+        <v>757.997090151856</v>
       </c>
       <c r="C25" t="n">
-        <v>506.1706266537286</v>
+        <v>585.435378635081</v>
       </c>
       <c r="D25" t="n">
-        <v>506.1706266537286</v>
+        <v>419.5573858366037</v>
       </c>
       <c r="E25" t="n">
-        <v>506.1706266537286</v>
+        <v>419.5573858366037</v>
       </c>
       <c r="F25" t="n">
-        <v>407.5791799361483</v>
+        <v>242.8503317983598</v>
       </c>
       <c r="G25" t="n">
         <v>242.8503317983598</v>
@@ -6147,25 +6147,25 @@
         <v>47.89149390651167</v>
       </c>
       <c r="J25" t="n">
-        <v>115.1624062988786</v>
+        <v>107.6516970499369</v>
       </c>
       <c r="K25" t="n">
-        <v>488.1252322436768</v>
+        <v>205.8560684235995</v>
       </c>
       <c r="L25" t="n">
-        <v>613.7930170202715</v>
+        <v>333.6232689453681</v>
       </c>
       <c r="M25" t="n">
-        <v>746.2920761435943</v>
+        <v>925.6061952496038</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.899406948568</v>
+        <v>1497.213526054577</v>
       </c>
       <c r="O25" t="n">
-        <v>1857.042957122527</v>
+        <v>2036.357076228536</v>
       </c>
       <c r="P25" t="n">
-        <v>2306.780755377314</v>
+        <v>2138.587980512981</v>
       </c>
       <c r="Q25" t="n">
         <v>2377.560134463605</v>
@@ -6186,13 +6186,13 @@
         <v>1442.827075138903</v>
       </c>
       <c r="W25" t="n">
-        <v>1170.800670725195</v>
+        <v>1177.235379556735</v>
       </c>
       <c r="X25" t="n">
-        <v>925.4089160586075</v>
+        <v>1177.235379556735</v>
       </c>
       <c r="Y25" t="n">
-        <v>697.9892453727157</v>
+        <v>949.8157088708431</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1780.466961379143</v>
+        <v>1315.65532432428</v>
       </c>
       <c r="C26" t="n">
-        <v>1342.324488562566</v>
+        <v>1315.65532432428</v>
       </c>
       <c r="D26" t="n">
-        <v>906.4147037370103</v>
+        <v>879.7455394987246</v>
       </c>
       <c r="E26" t="n">
-        <v>472.6399588953055</v>
+        <v>445.9707946570198</v>
       </c>
       <c r="F26" t="n">
-        <v>47.89149390651168</v>
+        <v>445.9707946570198</v>
       </c>
       <c r="G26" t="n">
-        <v>47.89149390651168</v>
+        <v>317.3314864121273</v>
       </c>
       <c r="H26" t="n">
         <v>47.89149390651168</v>
       </c>
       <c r="I26" t="n">
-        <v>120.1302617717071</v>
+        <v>120.1302617717074</v>
       </c>
       <c r="J26" t="n">
-        <v>280.0640053432108</v>
+        <v>280.0640053432111</v>
       </c>
       <c r="K26" t="n">
-        <v>519.7632284108103</v>
+        <v>519.7632284108105</v>
       </c>
       <c r="L26" t="n">
-        <v>817.131310281354</v>
+        <v>817.1313102813542</v>
       </c>
       <c r="M26" t="n">
-        <v>1148.010598057607</v>
+        <v>1148.010598057608</v>
       </c>
       <c r="N26" t="n">
         <v>1484.243858633726</v>
@@ -6244,10 +6244,10 @@
         <v>1801.739392143005</v>
       </c>
       <c r="P26" t="n">
-        <v>2072.714484474399</v>
+        <v>2072.7144844744</v>
       </c>
       <c r="Q26" t="n">
-        <v>2276.20549378066</v>
+        <v>2276.205493780661</v>
       </c>
       <c r="R26" t="n">
         <v>2394.574695325584</v>
@@ -6262,16 +6262,16 @@
         <v>2143.083911445316</v>
       </c>
       <c r="V26" t="n">
-        <v>1780.466961379143</v>
+        <v>2143.083911445316</v>
       </c>
       <c r="W26" t="n">
-        <v>1780.466961379143</v>
+        <v>2143.083911445316</v>
       </c>
       <c r="X26" t="n">
-        <v>1780.466961379143</v>
+        <v>1723.941448024627</v>
       </c>
       <c r="Y26" t="n">
-        <v>1780.466961379143</v>
+        <v>1315.65532432428</v>
       </c>
     </row>
     <row r="27">
@@ -6302,19 +6302,19 @@
         <v>47.89149390651168</v>
       </c>
       <c r="I27" t="n">
-        <v>58.47613193451055</v>
+        <v>82.60460935243127</v>
       </c>
       <c r="J27" t="n">
-        <v>153.7315739498678</v>
+        <v>177.8600513677885</v>
       </c>
       <c r="K27" t="n">
-        <v>316.5382964176923</v>
+        <v>316.5382964176925</v>
       </c>
       <c r="L27" t="n">
-        <v>535.4520263731382</v>
+        <v>535.4520263731384</v>
       </c>
       <c r="M27" t="n">
-        <v>790.9140237375682</v>
+        <v>790.9140237375683</v>
       </c>
       <c r="N27" t="n">
         <v>1053.137340021337</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.483942038907</v>
+        <v>1071.512094066391</v>
       </c>
       <c r="C28" t="n">
-        <v>919.9222305221321</v>
+        <v>898.9503825496155</v>
       </c>
       <c r="D28" t="n">
-        <v>754.0442377236548</v>
+        <v>733.0723897511382</v>
       </c>
       <c r="E28" t="n">
-        <v>584.2862339743921</v>
+        <v>563.3143860018754</v>
       </c>
       <c r="F28" t="n">
-        <v>407.5791799361483</v>
+        <v>386.6073319636316</v>
       </c>
       <c r="G28" t="n">
-        <v>242.8503317983598</v>
+        <v>221.8784838258431</v>
       </c>
       <c r="H28" t="n">
         <v>110.6159160885836</v>
@@ -6384,25 +6384,25 @@
         <v>47.89149390651168</v>
       </c>
       <c r="J28" t="n">
-        <v>194.2313822146268</v>
+        <v>107.6516970499369</v>
       </c>
       <c r="K28" t="n">
-        <v>567.194208159425</v>
+        <v>205.8560684235995</v>
       </c>
       <c r="L28" t="n">
-        <v>692.8619929360196</v>
+        <v>501.8160438097008</v>
       </c>
       <c r="M28" t="n">
-        <v>1284.844919240255</v>
+        <v>1093.798970113937</v>
       </c>
       <c r="N28" t="n">
-        <v>1414.193446887585</v>
+        <v>1665.40630091891</v>
       </c>
       <c r="O28" t="n">
-        <v>1688.850182258195</v>
+        <v>2204.549851092869</v>
       </c>
       <c r="P28" t="n">
-        <v>2138.587980512982</v>
+        <v>2306.780755377314</v>
       </c>
       <c r="Q28" t="n">
         <v>2377.560134463606</v>
@@ -6417,19 +6417,19 @@
         <v>2008.168542551565</v>
       </c>
       <c r="U28" t="n">
-        <v>1729.782583268473</v>
+        <v>2008.168542551565</v>
       </c>
       <c r="V28" t="n">
-        <v>1729.782583268473</v>
+        <v>2008.168542551565</v>
       </c>
       <c r="W28" t="n">
-        <v>1457.756178854765</v>
+        <v>1736.142138137857</v>
       </c>
       <c r="X28" t="n">
-        <v>1457.756178854765</v>
+        <v>1490.75038347127</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.302560757894</v>
+        <v>1263.330712785378</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1783.585925981141</v>
+        <v>1565.818293414436</v>
       </c>
       <c r="C29" t="n">
-        <v>1345.443453164564</v>
+        <v>1127.675820597859</v>
       </c>
       <c r="D29" t="n">
-        <v>909.5336683390087</v>
+        <v>1127.675820597859</v>
       </c>
       <c r="E29" t="n">
-        <v>475.758923497304</v>
+        <v>693.9010757561541</v>
       </c>
       <c r="F29" t="n">
-        <v>47.89149390651168</v>
+        <v>266.0336461653619</v>
       </c>
       <c r="G29" t="n">
-        <v>47.89149390651168</v>
+        <v>266.0336461653619</v>
       </c>
       <c r="H29" t="n">
         <v>47.89149390651168</v>
@@ -6490,25 +6490,25 @@
         <v>2394.574695325584</v>
       </c>
       <c r="S29" t="n">
-        <v>2394.574695325584</v>
+        <v>2354.734813965517</v>
       </c>
       <c r="T29" t="n">
-        <v>2394.574695325584</v>
+        <v>2354.734813965517</v>
       </c>
       <c r="U29" t="n">
-        <v>2394.574695325584</v>
+        <v>2354.734813965517</v>
       </c>
       <c r="V29" t="n">
-        <v>2394.574695325584</v>
+        <v>1992.117863899343</v>
       </c>
       <c r="W29" t="n">
-        <v>2209.885496466049</v>
+        <v>1992.117863899343</v>
       </c>
       <c r="X29" t="n">
-        <v>2209.885496466049</v>
+        <v>1992.117863899343</v>
       </c>
       <c r="Y29" t="n">
-        <v>2209.885496466049</v>
+        <v>1992.117863899343</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>47.89149390651168</v>
       </c>
       <c r="I30" t="n">
-        <v>58.47613193451055</v>
+        <v>82.60460935243127</v>
       </c>
       <c r="J30" t="n">
-        <v>153.7315739498678</v>
+        <v>177.8600513677885</v>
       </c>
       <c r="K30" t="n">
-        <v>316.5382964176923</v>
+        <v>340.666773835613</v>
       </c>
       <c r="L30" t="n">
-        <v>535.4520263731382</v>
+        <v>559.5805037910588</v>
       </c>
       <c r="M30" t="n">
-        <v>790.9140237375682</v>
+        <v>815.0425011554889</v>
       </c>
       <c r="N30" t="n">
         <v>1053.137340021337</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>650.3822476707519</v>
+        <v>960.249526329131</v>
       </c>
       <c r="C31" t="n">
-        <v>477.8205361539768</v>
+        <v>787.6878148123559</v>
       </c>
       <c r="D31" t="n">
-        <v>311.9425433554995</v>
+        <v>621.8098220138786</v>
       </c>
       <c r="E31" t="n">
-        <v>287.3229701268274</v>
+        <v>452.0518182646158</v>
       </c>
       <c r="F31" t="n">
-        <v>110.6159160885836</v>
+        <v>275.344764226372</v>
       </c>
       <c r="G31" t="n">
         <v>110.6159160885836</v>
@@ -6624,22 +6624,22 @@
         <v>194.2313822146268</v>
       </c>
       <c r="K31" t="n">
-        <v>376.1482590331062</v>
+        <v>343.9813787690285</v>
       </c>
       <c r="L31" t="n">
-        <v>501.8160438097008</v>
+        <v>887.8590453135841</v>
       </c>
       <c r="M31" t="n">
-        <v>1093.798970113937</v>
+        <v>1020.358104436907</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.40630091891</v>
+        <v>1149.706632084236</v>
       </c>
       <c r="O31" t="n">
-        <v>2204.549851092869</v>
+        <v>1688.850182258195</v>
       </c>
       <c r="P31" t="n">
-        <v>2306.780755377314</v>
+        <v>2138.587980512982</v>
       </c>
       <c r="Q31" t="n">
         <v>2377.560134463606</v>
@@ -6648,25 +6648,25 @@
         <v>2394.574695325584</v>
       </c>
       <c r="S31" t="n">
-        <v>2394.574695325584</v>
+        <v>2250.363074308561</v>
       </c>
       <c r="T31" t="n">
-        <v>2152.380163568588</v>
+        <v>2008.168542551565</v>
       </c>
       <c r="U31" t="n">
-        <v>1873.994204285496</v>
+        <v>1729.782583268473</v>
       </c>
       <c r="V31" t="n">
-        <v>1587.038696155927</v>
+        <v>1442.827075138904</v>
       </c>
       <c r="W31" t="n">
-        <v>1315.012291742218</v>
+        <v>1170.800670725195</v>
       </c>
       <c r="X31" t="n">
-        <v>1069.620537075631</v>
+        <v>1152.068145048118</v>
       </c>
       <c r="Y31" t="n">
-        <v>842.2008663897391</v>
+        <v>1152.068145048118</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>921.9437515486438</v>
+        <v>1146.675829993746</v>
       </c>
       <c r="C32" t="n">
-        <v>483.8012787320672</v>
+        <v>1146.675829993746</v>
       </c>
       <c r="D32" t="n">
-        <v>47.89149390651167</v>
+        <v>1146.675829993746</v>
       </c>
       <c r="E32" t="n">
-        <v>47.89149390651167</v>
+        <v>712.9010851520411</v>
       </c>
       <c r="F32" t="n">
-        <v>47.89149390651167</v>
+        <v>285.0336555612488</v>
       </c>
       <c r="G32" t="n">
         <v>47.89149390651167</v>
@@ -6697,13 +6697,13 @@
         <v>47.89149390651167</v>
       </c>
       <c r="I32" t="n">
-        <v>120.1302617717065</v>
+        <v>120.1302617717064</v>
       </c>
       <c r="J32" t="n">
-        <v>280.0640053432102</v>
+        <v>280.0640053432101</v>
       </c>
       <c r="K32" t="n">
-        <v>519.7632284108097</v>
+        <v>519.7632284108096</v>
       </c>
       <c r="L32" t="n">
         <v>817.1313102813535</v>
@@ -6727,25 +6727,25 @@
         <v>2394.574695325583</v>
       </c>
       <c r="S32" t="n">
-        <v>2394.574695325583</v>
+        <v>2354.734813965516</v>
       </c>
       <c r="T32" t="n">
-        <v>2394.574695325583</v>
+        <v>2354.734813965516</v>
       </c>
       <c r="U32" t="n">
-        <v>2394.574695325583</v>
+        <v>2354.734813965516</v>
       </c>
       <c r="V32" t="n">
-        <v>2394.574695325583</v>
+        <v>1992.117863899343</v>
       </c>
       <c r="W32" t="n">
-        <v>2175.671909154587</v>
+        <v>1992.117863899343</v>
       </c>
       <c r="X32" t="n">
-        <v>1756.529445733898</v>
+        <v>1572.975400478654</v>
       </c>
       <c r="Y32" t="n">
-        <v>1348.243322033552</v>
+        <v>1572.975400478654</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>82.60460935243127</v>
       </c>
       <c r="J33" t="n">
-        <v>153.7315739498678</v>
+        <v>177.8600513677885</v>
       </c>
       <c r="K33" t="n">
-        <v>316.5382964176923</v>
+        <v>340.666773835613</v>
       </c>
       <c r="L33" t="n">
-        <v>535.4520263731382</v>
+        <v>559.5805037910588</v>
       </c>
       <c r="M33" t="n">
-        <v>790.9140237375682</v>
+        <v>815.0425011554889</v>
       </c>
       <c r="N33" t="n">
-        <v>1053.137340021337</v>
+        <v>1077.265817439258</v>
       </c>
       <c r="O33" t="n">
-        <v>1293.020444937872</v>
+        <v>1317.148922355793</v>
       </c>
       <c r="P33" t="n">
-        <v>1485.547785101496</v>
+        <v>1509.676262519417</v>
       </c>
       <c r="Q33" t="n">
         <v>1614.247213373858</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>697.9892453727157</v>
+        <v>842.2008663897386</v>
       </c>
       <c r="C34" t="n">
-        <v>548.2563385920402</v>
+        <v>669.6391548729636</v>
       </c>
       <c r="D34" t="n">
-        <v>382.3783457935629</v>
+        <v>503.7611620744863</v>
       </c>
       <c r="E34" t="n">
-        <v>212.6203420443001</v>
+        <v>334.0031583252235</v>
       </c>
       <c r="F34" t="n">
-        <v>212.6203420443001</v>
+        <v>275.344764226372</v>
       </c>
       <c r="G34" t="n">
-        <v>47.89149390651167</v>
+        <v>110.6159160885836</v>
       </c>
       <c r="H34" t="n">
-        <v>47.89149390651167</v>
+        <v>110.6159160885836</v>
       </c>
       <c r="I34" t="n">
         <v>47.89149390651167</v>
       </c>
       <c r="J34" t="n">
-        <v>107.6516970499369</v>
+        <v>194.2313822146268</v>
       </c>
       <c r="K34" t="n">
-        <v>205.8560684235996</v>
+        <v>567.194208159425</v>
       </c>
       <c r="L34" t="n">
-        <v>749.7337349681552</v>
+        <v>1111.07187470398</v>
       </c>
       <c r="M34" t="n">
-        <v>882.232794091478</v>
+        <v>1243.570933827303</v>
       </c>
       <c r="N34" t="n">
-        <v>1453.840124896452</v>
+        <v>1372.919461474632</v>
       </c>
       <c r="O34" t="n">
-        <v>1992.983675070411</v>
+        <v>1688.850182258194</v>
       </c>
       <c r="P34" t="n">
-        <v>2306.780755377314</v>
+        <v>2138.587980512981</v>
       </c>
       <c r="Q34" t="n">
         <v>2377.560134463605</v>
@@ -6885,25 +6885,25 @@
         <v>2394.574695325583</v>
       </c>
       <c r="S34" t="n">
-        <v>2250.36307430856</v>
+        <v>2394.574695325583</v>
       </c>
       <c r="T34" t="n">
-        <v>2008.168542551565</v>
+        <v>2152.380163568588</v>
       </c>
       <c r="U34" t="n">
-        <v>1729.782583268473</v>
+        <v>1873.994204285496</v>
       </c>
       <c r="V34" t="n">
-        <v>1442.827075138903</v>
+        <v>1587.038696155926</v>
       </c>
       <c r="W34" t="n">
-        <v>1170.800670725195</v>
+        <v>1315.012291742218</v>
       </c>
       <c r="X34" t="n">
-        <v>925.4089160586075</v>
+        <v>1069.62053707563</v>
       </c>
       <c r="Y34" t="n">
-        <v>697.9892453727157</v>
+        <v>842.2008663897386</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1345.443453164564</v>
+        <v>1567.146108204548</v>
       </c>
       <c r="C35" t="n">
-        <v>1345.443453164564</v>
+        <v>1129.003635387971</v>
       </c>
       <c r="D35" t="n">
-        <v>909.5336683390087</v>
+        <v>875.2341221826041</v>
       </c>
       <c r="E35" t="n">
-        <v>475.758923497304</v>
+        <v>875.2341221826041</v>
       </c>
       <c r="F35" t="n">
-        <v>47.89149390651168</v>
+        <v>447.3666925918119</v>
       </c>
       <c r="G35" t="n">
         <v>47.89149390651168</v>
@@ -6973,16 +6973,16 @@
         <v>2394.574695325584</v>
       </c>
       <c r="V35" t="n">
-        <v>2172.8720402856</v>
+        <v>2394.574695325584</v>
       </c>
       <c r="W35" t="n">
-        <v>2172.8720402856</v>
+        <v>2394.574695325584</v>
       </c>
       <c r="X35" t="n">
-        <v>1753.729576864911</v>
+        <v>1975.432231904895</v>
       </c>
       <c r="Y35" t="n">
-        <v>1345.443453164564</v>
+        <v>1567.146108204548</v>
       </c>
     </row>
     <row r="36">
@@ -7034,10 +7034,10 @@
         <v>1317.148922355793</v>
       </c>
       <c r="P36" t="n">
-        <v>1509.676262519417</v>
+        <v>1485.547785101496</v>
       </c>
       <c r="Q36" t="n">
-        <v>1638.375690791779</v>
+        <v>1614.247213373858</v>
       </c>
       <c r="R36" t="n">
         <v>1676.845794552513</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>960.249526329131</v>
+        <v>1029.759519856835</v>
       </c>
       <c r="C37" t="n">
-        <v>787.6878148123559</v>
+        <v>857.1978083400603</v>
       </c>
       <c r="D37" t="n">
-        <v>621.8098220138786</v>
+        <v>691.319815541583</v>
       </c>
       <c r="E37" t="n">
-        <v>452.0518182646158</v>
+        <v>521.5618117923202</v>
       </c>
       <c r="F37" t="n">
-        <v>275.344764226372</v>
+        <v>344.8547577540764</v>
       </c>
       <c r="G37" t="n">
-        <v>110.6159160885836</v>
+        <v>180.1259096162879</v>
       </c>
       <c r="H37" t="n">
-        <v>110.6159160885836</v>
+        <v>47.89149390651168</v>
       </c>
       <c r="I37" t="n">
         <v>47.89149390651168</v>
@@ -7098,22 +7098,22 @@
         <v>107.6516970499369</v>
       </c>
       <c r="K37" t="n">
-        <v>480.6145229947351</v>
+        <v>205.8560684235996</v>
       </c>
       <c r="L37" t="n">
-        <v>1024.492189539291</v>
+        <v>501.8160438097008</v>
       </c>
       <c r="M37" t="n">
-        <v>1156.991248662614</v>
+        <v>1093.798970113937</v>
       </c>
       <c r="N37" t="n">
-        <v>1286.339776309943</v>
+        <v>1665.40630091891</v>
       </c>
       <c r="O37" t="n">
-        <v>1825.483326483901</v>
+        <v>2204.549851092869</v>
       </c>
       <c r="P37" t="n">
-        <v>2275.221124738688</v>
+        <v>2306.780755377314</v>
       </c>
       <c r="Q37" t="n">
         <v>2377.560134463606</v>
@@ -7122,25 +7122,25 @@
         <v>2394.574695325584</v>
       </c>
       <c r="S37" t="n">
-        <v>2285.203684579084</v>
+        <v>2394.574695325584</v>
       </c>
       <c r="T37" t="n">
-        <v>2043.009152822088</v>
+        <v>2244.801927625102</v>
       </c>
       <c r="U37" t="n">
-        <v>1764.623193538996</v>
+        <v>1966.41596834201</v>
       </c>
       <c r="V37" t="n">
-        <v>1477.667685409427</v>
+        <v>1966.41596834201</v>
       </c>
       <c r="W37" t="n">
-        <v>1205.641280995718</v>
+        <v>1694.389563928302</v>
       </c>
       <c r="X37" t="n">
-        <v>960.249526329131</v>
+        <v>1448.997809261714</v>
       </c>
       <c r="Y37" t="n">
-        <v>960.249526329131</v>
+        <v>1221.578138575823</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1570.576777315928</v>
+        <v>2135.506203257916</v>
       </c>
       <c r="C38" t="n">
-        <v>1132.434304499351</v>
+        <v>1697.363730441339</v>
       </c>
       <c r="D38" t="n">
-        <v>696.5245196737956</v>
+        <v>1261.453945615784</v>
       </c>
       <c r="E38" t="n">
-        <v>696.5245196737956</v>
+        <v>827.6792007740787</v>
       </c>
       <c r="F38" t="n">
-        <v>696.5245196737956</v>
+        <v>399.8117711832865</v>
       </c>
       <c r="G38" t="n">
-        <v>297.0493209884954</v>
+        <v>317.3314864121273</v>
       </c>
       <c r="H38" t="n">
         <v>47.89149390651168</v>
       </c>
       <c r="I38" t="n">
-        <v>120.130261771707</v>
+        <v>120.1302617717074</v>
       </c>
       <c r="J38" t="n">
-        <v>280.0640053432107</v>
+        <v>280.064005343211</v>
       </c>
       <c r="K38" t="n">
-        <v>519.76322841081</v>
+        <v>519.7632284108105</v>
       </c>
       <c r="L38" t="n">
-        <v>817.1313102813538</v>
+        <v>817.1313102813542</v>
       </c>
       <c r="M38" t="n">
         <v>1148.010598057607</v>
@@ -7192,10 +7192,10 @@
         <v>1801.739392143005</v>
       </c>
       <c r="P38" t="n">
-        <v>2072.714484474399</v>
+        <v>2072.7144844744</v>
       </c>
       <c r="Q38" t="n">
-        <v>2276.20549378066</v>
+        <v>2276.205493780661</v>
       </c>
       <c r="R38" t="n">
         <v>2394.574695325584</v>
@@ -7207,19 +7207,19 @@
         <v>2394.574695325584</v>
       </c>
       <c r="U38" t="n">
-        <v>2394.574695325584</v>
+        <v>2135.506203257916</v>
       </c>
       <c r="V38" t="n">
-        <v>2394.574695325584</v>
+        <v>2135.506203257916</v>
       </c>
       <c r="W38" t="n">
-        <v>1989.719240736617</v>
+        <v>2135.506203257916</v>
       </c>
       <c r="X38" t="n">
-        <v>1570.576777315928</v>
+        <v>2135.506203257916</v>
       </c>
       <c r="Y38" t="n">
-        <v>1570.576777315928</v>
+        <v>2135.506203257916</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>82.60460935243127</v>
       </c>
       <c r="J39" t="n">
-        <v>177.8600513677885</v>
+        <v>153.7315739498681</v>
       </c>
       <c r="K39" t="n">
-        <v>340.666773835613</v>
+        <v>316.5382964176925</v>
       </c>
       <c r="L39" t="n">
-        <v>559.5805037910588</v>
+        <v>535.4520263731384</v>
       </c>
       <c r="M39" t="n">
-        <v>815.0425011554889</v>
+        <v>790.9140237375683</v>
       </c>
       <c r="N39" t="n">
-        <v>1077.265817439258</v>
+        <v>1053.137340021337</v>
       </c>
       <c r="O39" t="n">
-        <v>1317.148922355793</v>
+        <v>1293.020444937872</v>
       </c>
       <c r="P39" t="n">
-        <v>1509.676262519417</v>
+        <v>1485.547785101496</v>
       </c>
       <c r="Q39" t="n">
         <v>1614.247213373858</v>
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>784.556585936821</v>
+        <v>761.8771011026414</v>
       </c>
       <c r="C40" t="n">
-        <v>724.9633926302839</v>
+        <v>589.3153895858663</v>
       </c>
       <c r="D40" t="n">
-        <v>559.0853998318066</v>
+        <v>589.3153895858663</v>
       </c>
       <c r="E40" t="n">
-        <v>389.3273960825439</v>
+        <v>419.5573858366037</v>
       </c>
       <c r="F40" t="n">
-        <v>212.6203420443001</v>
+        <v>242.8503317983599</v>
       </c>
       <c r="G40" t="n">
-        <v>47.89149390651168</v>
+        <v>242.8503317983599</v>
       </c>
       <c r="H40" t="n">
-        <v>47.89149390651168</v>
+        <v>110.6159160885836</v>
       </c>
       <c r="I40" t="n">
         <v>47.89149390651168</v>
       </c>
       <c r="J40" t="n">
-        <v>194.2313822146268</v>
+        <v>107.6516970499369</v>
       </c>
       <c r="K40" t="n">
-        <v>292.4357535882894</v>
+        <v>205.8560684235995</v>
       </c>
       <c r="L40" t="n">
-        <v>501.8160438097008</v>
+        <v>749.7337349681552</v>
       </c>
       <c r="M40" t="n">
-        <v>1093.798970113937</v>
+        <v>1341.716661272391</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.40630091891</v>
+        <v>1913.323992077365</v>
       </c>
       <c r="O40" t="n">
         <v>2204.549851092869</v>
@@ -7365,19 +7365,19 @@
         <v>2008.168542551565</v>
       </c>
       <c r="U40" t="n">
-        <v>2008.168542551565</v>
+        <v>1729.782583268473</v>
       </c>
       <c r="V40" t="n">
-        <v>1721.213034421996</v>
+        <v>1442.827075138904</v>
       </c>
       <c r="W40" t="n">
-        <v>1449.186630008287</v>
+        <v>1170.800670725195</v>
       </c>
       <c r="X40" t="n">
-        <v>1203.7948753417</v>
+        <v>925.4089160586079</v>
       </c>
       <c r="Y40" t="n">
-        <v>976.3752046558081</v>
+        <v>761.8771011026414</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>921.9437515486438</v>
+        <v>1349.811181139436</v>
       </c>
       <c r="C41" t="n">
-        <v>483.8012787320672</v>
+        <v>911.6687083228594</v>
       </c>
       <c r="D41" t="n">
-        <v>47.89149390651168</v>
+        <v>475.758923497304</v>
       </c>
       <c r="E41" t="n">
-        <v>47.89149390651168</v>
+        <v>475.758923497304</v>
       </c>
       <c r="F41" t="n">
         <v>47.89149390651168</v>
@@ -7408,19 +7408,19 @@
         <v>47.89149390651168</v>
       </c>
       <c r="I41" t="n">
-        <v>120.1302617717071</v>
+        <v>120.1302617717074</v>
       </c>
       <c r="J41" t="n">
-        <v>280.0640053432108</v>
+        <v>280.0640053432111</v>
       </c>
       <c r="K41" t="n">
-        <v>519.7632284108103</v>
+        <v>519.7632284108105</v>
       </c>
       <c r="L41" t="n">
-        <v>817.131310281354</v>
+        <v>817.1313102813542</v>
       </c>
       <c r="M41" t="n">
-        <v>1148.010598057607</v>
+        <v>1148.010598057608</v>
       </c>
       <c r="N41" t="n">
         <v>1484.243858633726</v>
@@ -7429,10 +7429,10 @@
         <v>1801.739392143005</v>
       </c>
       <c r="P41" t="n">
-        <v>2072.714484474399</v>
+        <v>2072.7144844744</v>
       </c>
       <c r="Q41" t="n">
-        <v>2276.20549378066</v>
+        <v>2276.205493780661</v>
       </c>
       <c r="R41" t="n">
         <v>2394.574695325584</v>
@@ -7441,22 +7441,22 @@
         <v>2354.734813965517</v>
       </c>
       <c r="T41" t="n">
-        <v>2143.083911445316</v>
+        <v>2354.734813965517</v>
       </c>
       <c r="U41" t="n">
-        <v>2143.083911445316</v>
+        <v>2354.734813965517</v>
       </c>
       <c r="V41" t="n">
-        <v>2143.083911445316</v>
+        <v>2354.734813965517</v>
       </c>
       <c r="W41" t="n">
-        <v>2143.083911445316</v>
+        <v>2354.734813965517</v>
       </c>
       <c r="X41" t="n">
-        <v>1723.941448024627</v>
+        <v>1935.592350544828</v>
       </c>
       <c r="Y41" t="n">
-        <v>1315.65532432428</v>
+        <v>1776.110751624344</v>
       </c>
     </row>
     <row r="42">
@@ -7499,7 +7499,7 @@
         <v>559.5805037910588</v>
       </c>
       <c r="M42" t="n">
-        <v>815.0425011554889</v>
+        <v>815.0425011554888</v>
       </c>
       <c r="N42" t="n">
         <v>1077.265817439258</v>
@@ -7511,7 +7511,7 @@
         <v>1509.676262519417</v>
       </c>
       <c r="Q42" t="n">
-        <v>1638.375690791779</v>
+        <v>1614.247213373858</v>
       </c>
       <c r="R42" t="n">
         <v>1676.845794552513</v>
@@ -7551,13 +7551,13 @@
         <v>477.8205361539768</v>
       </c>
       <c r="D43" t="n">
-        <v>311.9425433554995</v>
+        <v>394.3565516940182</v>
       </c>
       <c r="E43" t="n">
-        <v>311.9425433554995</v>
+        <v>224.5985479447555</v>
       </c>
       <c r="F43" t="n">
-        <v>135.2354893172557</v>
+        <v>47.89149390651168</v>
       </c>
       <c r="G43" t="n">
         <v>47.89149390651168</v>
@@ -7569,22 +7569,22 @@
         <v>47.89149390651168</v>
       </c>
       <c r="J43" t="n">
-        <v>115.162406298879</v>
+        <v>107.6516970499369</v>
       </c>
       <c r="K43" t="n">
-        <v>488.1252322436773</v>
+        <v>205.8560684235995</v>
       </c>
       <c r="L43" t="n">
-        <v>613.7930170202719</v>
+        <v>501.8160438097008</v>
       </c>
       <c r="M43" t="n">
-        <v>746.2920761435947</v>
+        <v>1093.798970113937</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.899406948568</v>
+        <v>1665.40630091891</v>
       </c>
       <c r="O43" t="n">
-        <v>1857.042957122527</v>
+        <v>2204.549851092869</v>
       </c>
       <c r="P43" t="n">
         <v>2306.780755377314</v>
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1345.443453164564</v>
+        <v>1783.585925981141</v>
       </c>
       <c r="C44" t="n">
         <v>1345.443453164564</v>
@@ -7675,25 +7675,25 @@
         <v>2394.574695325584</v>
       </c>
       <c r="S44" t="n">
-        <v>2394.574695325584</v>
+        <v>2354.734813965517</v>
       </c>
       <c r="T44" t="n">
-        <v>2394.574695325584</v>
+        <v>2354.734813965517</v>
       </c>
       <c r="U44" t="n">
-        <v>2169.44137117422</v>
+        <v>2354.734813965517</v>
       </c>
       <c r="V44" t="n">
-        <v>2169.44137117422</v>
+        <v>2354.734813965517</v>
       </c>
       <c r="W44" t="n">
-        <v>1764.585916585253</v>
+        <v>2354.734813965517</v>
       </c>
       <c r="X44" t="n">
-        <v>1345.443453164564</v>
+        <v>2209.885496466049</v>
       </c>
       <c r="Y44" t="n">
-        <v>1345.443453164564</v>
+        <v>2209.885496466049</v>
       </c>
     </row>
     <row r="45">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>978.9820520062083</v>
+        <v>650.3822476707519</v>
       </c>
       <c r="C46" t="n">
-        <v>806.4203404894332</v>
+        <v>477.8205361539768</v>
       </c>
       <c r="D46" t="n">
-        <v>640.5423476909559</v>
+        <v>477.8205361539768</v>
       </c>
       <c r="E46" t="n">
-        <v>584.2862339743921</v>
+        <v>477.8205361539768</v>
       </c>
       <c r="F46" t="n">
-        <v>407.5791799361483</v>
+        <v>301.1134821157331</v>
       </c>
       <c r="G46" t="n">
         <v>242.8503317983598</v>
@@ -7806,25 +7806,25 @@
         <v>47.89149390651168</v>
       </c>
       <c r="J46" t="n">
-        <v>194.2313822146268</v>
+        <v>107.6516970499369</v>
       </c>
       <c r="K46" t="n">
-        <v>567.194208159425</v>
+        <v>205.8560684235996</v>
       </c>
       <c r="L46" t="n">
-        <v>1111.07187470398</v>
+        <v>501.8160438097008</v>
       </c>
       <c r="M46" t="n">
-        <v>1243.570933827303</v>
+        <v>1093.798970113937</v>
       </c>
       <c r="N46" t="n">
-        <v>1372.919461474632</v>
+        <v>1665.40630091891</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.850182258195</v>
+        <v>2204.549851092869</v>
       </c>
       <c r="P46" t="n">
-        <v>2138.587980512982</v>
+        <v>2306.780755377314</v>
       </c>
       <c r="Q46" t="n">
         <v>2377.560134463606</v>
@@ -7833,25 +7833,25 @@
         <v>2394.574695325584</v>
       </c>
       <c r="S46" t="n">
-        <v>2250.363074308561</v>
+        <v>2394.574695325584</v>
       </c>
       <c r="T46" t="n">
-        <v>2008.168542551565</v>
+        <v>2152.380163568588</v>
       </c>
       <c r="U46" t="n">
-        <v>1729.782583268473</v>
+        <v>1873.994204285496</v>
       </c>
       <c r="V46" t="n">
-        <v>1442.827075138904</v>
+        <v>1587.038696155927</v>
       </c>
       <c r="W46" t="n">
-        <v>1170.800670725195</v>
+        <v>1315.012291742218</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.800670725195</v>
+        <v>1069.620537075631</v>
       </c>
       <c r="Y46" t="n">
-        <v>1170.800670725195</v>
+        <v>842.2008663897391</v>
       </c>
     </row>
   </sheetData>
@@ -8291,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>18.14248094456009</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>29.93886192899842</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>21.7544002872377</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,22 +8373,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.681643090303395</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>34.45295969778791</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>32.53395007869802</v>
       </c>
       <c r="M7" t="n">
-        <v>3.425074604904637</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>32.27675768710763</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>32.96672057477706</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>21.75440028723776</v>
       </c>
       <c r="K9" t="n">
-        <v>29.93886192899843</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>18.14248094456013</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>37.13925100285415</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8622,13 +8622,13 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.530227110285693</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>32.96672057477706</v>
       </c>
       <c r="P10" t="n">
-        <v>31.52930186393523</v>
+        <v>34.17160518172662</v>
       </c>
       <c r="Q10" t="n">
         <v>36.36928463638102</v>
@@ -9087,25 +9087,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>69.27619576520578</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>177.1920849464593</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9324,13 +9324,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>142.1674636999936</v>
+        <v>70.75030430845857</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371569</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -9339,7 +9339,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>263.8716243249362</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>177.1920849464593</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>7.586574998930971</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>2.120621964822135</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -9813,10 +9813,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>172.0123137469765</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>156.7499337600334</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10272,25 +10272,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>84.55808630789579</v>
+        <v>52.06628806135257</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10518,16 +10518,16 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>198.4408281165502</v>
       </c>
       <c r="P34" t="n">
-        <v>213.7032081034931</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10746,25 +10746,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>172.0123137469764</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.87841478649079</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>84.55808630789573</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645587</v>
@@ -10995,7 +10995,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>173.4864222902293</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11217,16 +11217,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>7.586574998931411</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>172.0123137469765</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -11235,7 +11235,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>172.0123137469764</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>198.4408281165506</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100.0994919970772</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>285.9262050184159</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23317,13 +23317,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>95.88964603324672</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>105.5604023018372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>328.8704442575128</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>224.6622365644841</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
@@ -23557,7 +23557,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>116.2811729292061</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>199.3843422740826</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,13 +23734,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>24.51002070015147</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>71.69760457670628</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>113.743809091021</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>44.71309455508428</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>90.26458326703147</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>289.988860100687</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24022,7 +24022,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>145.3758766889672</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>207.2731987944985</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>395.4804466984472</v>
       </c>
       <c r="H23" t="n">
-        <v>28.80215953429203</v>
+        <v>159.9199715047893</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>39.44148254646628</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.5343934949986</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4778071469916</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>77.33445124745688</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0815596564106</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>6.370361743224521</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>3.087774955978489</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.4804466984472</v>
+        <v>268.1275315360036</v>
       </c>
       <c r="H26" t="n">
-        <v>266.7455925805594</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>256.4778071469916</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>20.76212949279154</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.602099690261</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.42639206313078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>395.4804466984472</v>
       </c>
       <c r="H29" t="n">
-        <v>266.7455925805594</v>
+        <v>50.78486184429778</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>39.44148254646628</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.5343934949986</v>
@@ -24739,10 +24739,10 @@
         <v>256.4778071469916</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>217.9645931721371</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
@@ -24846,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>143.6870462153847</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0815596564106</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>130.9120715526785</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7695048068526</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>224.3926366996151</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24919,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>395.4804466984472</v>
+        <v>160.7097066602574</v>
       </c>
       <c r="H32" t="n">
         <v>266.7455925805594</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>39.44148254646628</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.5343934949986</v>
@@ -24976,16 +24976,16 @@
         <v>256.4778071469916</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>184.093141733791</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>22.60051668873854</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>116.8681733399984</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>130.9120715526785</v>
       </c>
       <c r="I34" t="n">
-        <v>62.09717796025117</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.7695048068526</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25156,19 +25156,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>180.3188689039863</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.4804466984472</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>266.7455925805594</v>
@@ -25213,7 +25213,7 @@
         <v>256.4778071469916</v>
       </c>
       <c r="V35" t="n">
-        <v>139.5051520759279</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>130.9120715526785</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.09717796025117</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>34.4922041678177</v>
+        <v>142.7695048068526</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>91.49754641594856</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>313.8249647749997</v>
       </c>
       <c r="H38" t="n">
-        <v>20.07934376939559</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>39.44148254646628</v>
+        <v>39.44148254646629</v>
       </c>
       <c r="T38" t="n">
         <v>209.5343934949986</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4778071469916</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>111.8388330281356</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0815596564106</v>
       </c>
       <c r="H40" t="n">
-        <v>130.9120715526785</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.09717796025117</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.602099690261</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>63.24897717262596</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>32.26211773217875</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>395.4804466984472</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.5343934949986</v>
       </c>
       <c r="U41" t="n">
         <v>256.4778071469916</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>246.316479532064</v>
       </c>
     </row>
     <row r="42">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>81.5898682551335</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>76.61100419977394</v>
+        <v>163.0815596564106</v>
       </c>
       <c r="H43" t="n">
         <v>130.9120715526785</v>
       </c>
       <c r="I43" t="n">
-        <v>62.09717796025117</v>
+        <v>62.09717796025118</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>39.44148254646628</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>209.5343934949986</v>
       </c>
       <c r="U44" t="n">
-        <v>33.59581623714129</v>
+        <v>256.4778071469916</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>271.5502144620089</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>112.3668711323719</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>105.4010408422111</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.7695048068526</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>347259.8629040032</v>
+        <v>347259.8629040033</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>347259.8629040032</v>
+        <v>347259.8629040033</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>347259.8629040032</v>
+        <v>347259.8629040033</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>351223.0222978417</v>
+        <v>351223.0222978416</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>351223.0222978418</v>
+        <v>351223.0222978417</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>351223.0222978418</v>
+        <v>351223.0222978417</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>366369.2430228542</v>
+        <v>366369.2430228541</v>
       </c>
       <c r="C2" t="n">
-        <v>375303.123923286</v>
+        <v>375303.1239232861</v>
       </c>
       <c r="D2" t="n">
         <v>375303.123923286</v>
@@ -26328,16 +26328,16 @@
         <v>220216.5998211443</v>
       </c>
       <c r="G2" t="n">
-        <v>220216.5998211443</v>
+        <v>220216.5998211442</v>
       </c>
       <c r="H2" t="n">
         <v>220216.5998211443</v>
       </c>
       <c r="I2" t="n">
-        <v>222697.2156356105</v>
+        <v>222697.2156356104</v>
       </c>
       <c r="J2" t="n">
-        <v>222697.2156356105</v>
+        <v>222697.2156356106</v>
       </c>
       <c r="K2" t="n">
         <v>222697.2156356105</v>
@@ -26346,16 +26346,16 @@
         <v>222697.2156356105</v>
       </c>
       <c r="M2" t="n">
-        <v>222697.2156356106</v>
+        <v>222697.2156356105</v>
       </c>
       <c r="N2" t="n">
-        <v>222697.2156356106</v>
+        <v>222697.2156356105</v>
       </c>
       <c r="O2" t="n">
-        <v>222697.2156356106</v>
+        <v>222697.2156356105</v>
       </c>
       <c r="P2" t="n">
-        <v>222697.2156356106</v>
+        <v>222697.2156356105</v>
       </c>
     </row>
     <row r="3">
@@ -26386,13 +26386,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7373.172613005651</v>
+        <v>7373.172613005665</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>10633.15970433603</v>
+        <v>10633.15970433602</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
         <v>294463.6810029484</v>
@@ -26435,31 +26435,31 @@
         <v>17402.73254778061</v>
       </c>
       <c r="H4" t="n">
-        <v>17402.73254778061</v>
+        <v>17402.7325477806</v>
       </c>
       <c r="I4" t="n">
         <v>17650.20496869035</v>
       </c>
       <c r="J4" t="n">
+        <v>17650.20496869036</v>
+      </c>
+      <c r="K4" t="n">
         <v>17650.20496869035</v>
-      </c>
-      <c r="K4" t="n">
-        <v>17650.20496869036</v>
       </c>
       <c r="L4" t="n">
         <v>17650.20496869035</v>
       </c>
       <c r="M4" t="n">
-        <v>17650.20496869035</v>
+        <v>17650.20496869036</v>
       </c>
       <c r="N4" t="n">
         <v>17650.20496869036</v>
       </c>
       <c r="O4" t="n">
-        <v>17650.20496869035</v>
+        <v>17650.20496869036</v>
       </c>
       <c r="P4" t="n">
-        <v>17650.20496869035</v>
+        <v>17650.20496869036</v>
       </c>
     </row>
     <row r="5">
@@ -26484,7 +26484,7 @@
         <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
         <v>46051.08120963781</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34010.9267110214</v>
+        <v>33979.01999351972</v>
       </c>
       <c r="C6" t="n">
-        <v>813.166490910131</v>
+        <v>813.1664909101892</v>
       </c>
       <c r="D6" t="n">
         <v>43985.87311012748</v>
       </c>
       <c r="E6" t="n">
-        <v>-355722.7234922558</v>
+        <v>-356276.6039354777</v>
       </c>
       <c r="F6" t="n">
-        <v>156762.7860637259</v>
+        <v>156208.9056205039</v>
       </c>
       <c r="G6" t="n">
-        <v>156762.7860637259</v>
+        <v>156208.9056205039</v>
       </c>
       <c r="H6" t="n">
-        <v>156762.7860637259</v>
+        <v>156208.9056205039</v>
       </c>
       <c r="I6" t="n">
-        <v>150954.6058217564</v>
+        <v>150409.5847207288</v>
       </c>
       <c r="J6" t="n">
-        <v>158327.778434762</v>
+        <v>157782.7573337347</v>
       </c>
       <c r="K6" t="n">
-        <v>147694.618730426</v>
+        <v>147149.5976293986</v>
       </c>
       <c r="L6" t="n">
-        <v>158327.778434762</v>
+        <v>157782.7573337346</v>
       </c>
       <c r="M6" t="n">
-        <v>21572.87405164666</v>
+        <v>21027.85295061917</v>
       </c>
       <c r="N6" t="n">
-        <v>158327.7784347621</v>
+        <v>157782.7573337346</v>
       </c>
       <c r="O6" t="n">
-        <v>158327.7784347621</v>
+        <v>157782.7573337346</v>
       </c>
       <c r="P6" t="n">
-        <v>158327.778434762</v>
+        <v>157782.7573337346</v>
       </c>
     </row>
   </sheetData>
@@ -26746,22 +26746,22 @@
         <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
         <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
         <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
-        <v>473.4723331747383</v>
+        <v>473.4723331747382</v>
       </c>
       <c r="J3" t="n">
-        <v>473.4723331747383</v>
+        <v>473.4723331747382</v>
       </c>
       <c r="K3" t="n">
         <v>473.4723331747383</v>
@@ -26773,10 +26773,10 @@
         <v>473.4723331747383</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4723331747383</v>
+        <v>473.4723331747382</v>
       </c>
       <c r="O3" t="n">
-        <v>473.4723331747383</v>
+        <v>473.4723331747382</v>
       </c>
       <c r="P3" t="n">
         <v>473.4723331747383</v>
@@ -26801,10 +26801,10 @@
         <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="G4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
         <v>590.081894361934</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.770405081517065</v>
+        <v>6.770405081517083</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27038,7 +27038,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.3150030475274</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27697,16 +27697,16 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C6" t="n">
-        <v>105.3918965517241</v>
+        <v>64.07689350419679</v>
       </c>
       <c r="D6" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738494</v>
       </c>
       <c r="E6" t="n">
         <v>93.17921052631581</v>
       </c>
       <c r="F6" t="n">
-        <v>82.55</v>
+        <v>41.23499695247266</v>
       </c>
       <c r="G6" t="n">
         <v>84.46078876789484</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>61.51230405132225</v>
+        <v>25.1220493670602</v>
       </c>
       <c r="T6" t="n">
         <v>128.5928940176698</v>
@@ -27754,16 +27754,16 @@
         <v>174.5685466570983</v>
       </c>
       <c r="V6" t="n">
-        <v>155.8113397110933</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W6" t="n">
-        <v>142.1545236766106</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X6" t="n">
-        <v>112.0037583559815</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y6" t="n">
-        <v>88.83066674430935</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="7">
@@ -27776,10 +27776,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>129.52109135408</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>122.9042098229652</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -27788,13 +27788,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>146.0340017035184</v>
+        <v>163.8762992535017</v>
       </c>
       <c r="H7" t="n">
         <v>137.9780290613614</v>
       </c>
       <c r="I7" t="n">
-        <v>85.99716511640959</v>
+        <v>44.68216206888226</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,16 +27830,16 @@
         <v>243.1682919906331</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6454491228296</v>
+        <v>234.3304460753022</v>
       </c>
       <c r="V7" t="n">
-        <v>242.7709500007465</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>227.991137322044</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>225.0955395699384</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -27931,19 +27931,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78.77585902143818</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
         <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E9" t="n">
         <v>51.86420747878847</v>
       </c>
       <c r="F9" t="n">
-        <v>41.23499695247265</v>
+        <v>46.15974531573791</v>
       </c>
       <c r="G9" t="n">
         <v>84.46078876789484</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>61.51230405132225</v>
+        <v>20.19730100379491</v>
       </c>
       <c r="T9" t="n">
         <v>128.5928940176698</v>
@@ -28000,7 +28000,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
-        <v>88.83066674430933</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="10">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.0581349818139</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>129.52109135408</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E10" t="n">
-        <v>126.7454206642428</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>133.624980450334</v>
       </c>
       <c r="G10" t="n">
-        <v>122.5612962059744</v>
+        <v>163.8762992535017</v>
       </c>
       <c r="H10" t="n">
         <v>137.9780290613614</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>156.6196485125224</v>
+        <v>138.7773509625391</v>
       </c>
       <c r="T10" t="n">
         <v>243.1682919906331</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
@@ -32010,7 +32010,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
         <v>316.116681354841</v>
@@ -32019,19 +32019,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742736</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
@@ -32101,7 +32101,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
@@ -32110,7 +32110,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
         <v>97.77787936116989</v>
@@ -32168,16 +32168,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R16" t="n">
         <v>37.84111043195198</v>
@@ -32189,7 +32189,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062837</v>
@@ -32247,28 +32247,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916864</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916787</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562338</v>
@@ -32718,7 +32718,7 @@
         <v>300.3717998692362</v>
       </c>
       <c r="M23" t="n">
-        <v>334.2215028042965</v>
+        <v>334.2215028042964</v>
       </c>
       <c r="N23" t="n">
         <v>339.6295561374934</v>
@@ -32736,7 +32736,7 @@
         <v>119.5648500453775</v>
       </c>
       <c r="S23" t="n">
-        <v>43.37387253153508</v>
+        <v>43.37387253153507</v>
       </c>
       <c r="T23" t="n">
         <v>8.33216136069313</v>
@@ -32785,22 +32785,22 @@
         <v>9.835717713686545</v>
       </c>
       <c r="I24" t="n">
-        <v>35.06375297567637</v>
+        <v>10.69155356363556</v>
       </c>
       <c r="J24" t="n">
-        <v>96.21761819733055</v>
+        <v>96.21761819733054</v>
       </c>
       <c r="K24" t="n">
         <v>164.4512348159843</v>
       </c>
       <c r="L24" t="n">
-        <v>221.1249797529757</v>
+        <v>221.1249797529756</v>
       </c>
       <c r="M24" t="n">
-        <v>233.6702221681912</v>
+        <v>258.0424215802323</v>
       </c>
       <c r="N24" t="n">
-        <v>264.8720366502718</v>
+        <v>264.8720366502717</v>
       </c>
       <c r="O24" t="n">
         <v>242.3061665823587</v>
@@ -32821,7 +32821,7 @@
         <v>4.104915794222493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06700080186434978</v>
+        <v>0.06700080186434977</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8538025680200197</v>
+        <v>0.8538025680200196</v>
       </c>
       <c r="H25" t="n">
-        <v>7.591081013850726</v>
+        <v>7.591081013850725</v>
       </c>
       <c r="I25" t="n">
-        <v>25.67617177282024</v>
+        <v>25.67617177282023</v>
       </c>
       <c r="J25" t="n">
-        <v>60.36384155901539</v>
+        <v>60.36384155901538</v>
       </c>
       <c r="K25" t="n">
-        <v>99.19633472087136</v>
+        <v>99.19633472087135</v>
       </c>
       <c r="L25" t="n">
         <v>126.9371563399946</v>
@@ -32879,7 +32879,7 @@
         <v>133.8374334579018</v>
       </c>
       <c r="N25" t="n">
-        <v>130.6550784316455</v>
+        <v>130.6550784316454</v>
       </c>
       <c r="O25" t="n">
         <v>120.6811120688661</v>
@@ -32897,10 +32897,10 @@
         <v>14.8794502081307</v>
       </c>
       <c r="T25" t="n">
-        <v>3.64806551790372</v>
+        <v>3.648065517903719</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0465710491647284</v>
+        <v>0.04657104916472839</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32955,7 +32955,7 @@
         <v>300.3717998692362</v>
       </c>
       <c r="M26" t="n">
-        <v>334.2215028042965</v>
+        <v>334.2215028042964</v>
       </c>
       <c r="N26" t="n">
         <v>339.6295561374934</v>
@@ -32973,7 +32973,7 @@
         <v>119.5648500453775</v>
       </c>
       <c r="S26" t="n">
-        <v>43.37387253153508</v>
+        <v>43.37387253153507</v>
       </c>
       <c r="T26" t="n">
         <v>8.33216136069313</v>
@@ -33022,22 +33022,22 @@
         <v>9.835717713686545</v>
       </c>
       <c r="I27" t="n">
-        <v>10.69155356363522</v>
+        <v>35.06375297567637</v>
       </c>
       <c r="J27" t="n">
-        <v>96.21761819733055</v>
+        <v>96.21761819733054</v>
       </c>
       <c r="K27" t="n">
-        <v>164.4512348159843</v>
+        <v>140.0790354039435</v>
       </c>
       <c r="L27" t="n">
-        <v>221.1249797529757</v>
+        <v>221.1249797529756</v>
       </c>
       <c r="M27" t="n">
         <v>258.0424215802323</v>
       </c>
       <c r="N27" t="n">
-        <v>264.8720366502718</v>
+        <v>264.8720366502717</v>
       </c>
       <c r="O27" t="n">
         <v>242.3061665823587</v>
@@ -33058,7 +33058,7 @@
         <v>4.104915794222493</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06700080186434978</v>
+        <v>0.06700080186434977</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8538025680200197</v>
+        <v>0.8538025680200196</v>
       </c>
       <c r="H28" t="n">
-        <v>7.591081013850726</v>
+        <v>7.591081013850725</v>
       </c>
       <c r="I28" t="n">
-        <v>25.67617177282024</v>
+        <v>25.67617177282023</v>
       </c>
       <c r="J28" t="n">
-        <v>60.36384155901539</v>
+        <v>60.36384155901538</v>
       </c>
       <c r="K28" t="n">
-        <v>99.19633472087136</v>
+        <v>99.19633472087135</v>
       </c>
       <c r="L28" t="n">
         <v>126.9371563399946</v>
@@ -33116,7 +33116,7 @@
         <v>133.8374334579018</v>
       </c>
       <c r="N28" t="n">
-        <v>130.6550784316455</v>
+        <v>130.6550784316454</v>
       </c>
       <c r="O28" t="n">
         <v>120.6811120688661</v>
@@ -33134,10 +33134,10 @@
         <v>14.8794502081307</v>
       </c>
       <c r="T28" t="n">
-        <v>3.64806551790372</v>
+        <v>3.648065517903719</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0465710491647284</v>
+        <v>0.04657104916472839</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>9.835717713686545</v>
       </c>
       <c r="I30" t="n">
-        <v>10.69155356363522</v>
+        <v>35.06375297567637</v>
       </c>
       <c r="J30" t="n">
         <v>96.21761819733055</v>
@@ -33274,7 +33274,7 @@
         <v>258.0424215802323</v>
       </c>
       <c r="N30" t="n">
-        <v>264.8720366502718</v>
+        <v>240.4998372382306</v>
       </c>
       <c r="O30" t="n">
         <v>242.3061665823587</v>
@@ -33499,7 +33499,7 @@
         <v>35.06375297567637</v>
       </c>
       <c r="J33" t="n">
-        <v>71.84541878528941</v>
+        <v>96.21761819733055</v>
       </c>
       <c r="K33" t="n">
         <v>164.4512348159843</v>
@@ -33520,7 +33520,7 @@
         <v>194.4720607713373</v>
       </c>
       <c r="Q33" t="n">
-        <v>129.9994224973357</v>
+        <v>105.6272230852944</v>
       </c>
       <c r="R33" t="n">
         <v>63.23089007944903</v>
@@ -33754,13 +33754,13 @@
         <v>242.3061665823587</v>
       </c>
       <c r="P36" t="n">
-        <v>194.4720607713373</v>
+        <v>170.099861359296</v>
       </c>
       <c r="Q36" t="n">
         <v>129.9994224973357</v>
       </c>
       <c r="R36" t="n">
-        <v>38.8586906674077</v>
+        <v>63.23089007944903</v>
       </c>
       <c r="S36" t="n">
         <v>18.91655972636807</v>
@@ -33903,7 +33903,7 @@
         <v>300.3717998692362</v>
       </c>
       <c r="M38" t="n">
-        <v>334.2215028042965</v>
+        <v>334.2215028042964</v>
       </c>
       <c r="N38" t="n">
         <v>339.6295561374934</v>
@@ -33921,7 +33921,7 @@
         <v>119.5648500453775</v>
       </c>
       <c r="S38" t="n">
-        <v>43.37387253153508</v>
+        <v>43.37387253153507</v>
       </c>
       <c r="T38" t="n">
         <v>8.33216136069313</v>
@@ -33973,19 +33973,19 @@
         <v>35.06375297567637</v>
       </c>
       <c r="J39" t="n">
-        <v>96.21761819733055</v>
+        <v>71.84541878528972</v>
       </c>
       <c r="K39" t="n">
         <v>164.4512348159843</v>
       </c>
       <c r="L39" t="n">
-        <v>221.1249797529757</v>
+        <v>221.1249797529756</v>
       </c>
       <c r="M39" t="n">
         <v>258.0424215802323</v>
       </c>
       <c r="N39" t="n">
-        <v>264.8720366502718</v>
+        <v>264.8720366502717</v>
       </c>
       <c r="O39" t="n">
         <v>242.3061665823587</v>
@@ -33994,7 +33994,7 @@
         <v>194.4720607713373</v>
       </c>
       <c r="Q39" t="n">
-        <v>105.6272230852944</v>
+        <v>129.9994224973357</v>
       </c>
       <c r="R39" t="n">
         <v>63.23089007944903</v>
@@ -34006,7 +34006,7 @@
         <v>4.104915794222493</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06700080186434978</v>
+        <v>0.06700080186434977</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8538025680200197</v>
+        <v>0.8538025680200196</v>
       </c>
       <c r="H40" t="n">
-        <v>7.591081013850726</v>
+        <v>7.591081013850725</v>
       </c>
       <c r="I40" t="n">
-        <v>25.67617177282024</v>
+        <v>25.67617177282023</v>
       </c>
       <c r="J40" t="n">
-        <v>60.36384155901539</v>
+        <v>60.36384155901538</v>
       </c>
       <c r="K40" t="n">
-        <v>99.19633472087136</v>
+        <v>99.19633472087135</v>
       </c>
       <c r="L40" t="n">
         <v>126.9371563399946</v>
@@ -34064,7 +34064,7 @@
         <v>133.8374334579018</v>
       </c>
       <c r="N40" t="n">
-        <v>130.6550784316455</v>
+        <v>130.6550784316454</v>
       </c>
       <c r="O40" t="n">
         <v>120.6811120688661</v>
@@ -34082,10 +34082,10 @@
         <v>14.8794502081307</v>
       </c>
       <c r="T40" t="n">
-        <v>3.64806551790372</v>
+        <v>3.648065517903719</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0465710491647284</v>
+        <v>0.04657104916472839</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34140,7 +34140,7 @@
         <v>300.3717998692362</v>
       </c>
       <c r="M41" t="n">
-        <v>334.2215028042965</v>
+        <v>334.2215028042964</v>
       </c>
       <c r="N41" t="n">
         <v>339.6295561374934</v>
@@ -34158,7 +34158,7 @@
         <v>119.5648500453775</v>
       </c>
       <c r="S41" t="n">
-        <v>43.37387253153508</v>
+        <v>43.37387253153507</v>
       </c>
       <c r="T41" t="n">
         <v>8.33216136069313</v>
@@ -34210,19 +34210,19 @@
         <v>35.06375297567637</v>
       </c>
       <c r="J42" t="n">
-        <v>96.21761819733055</v>
+        <v>96.21761819733054</v>
       </c>
       <c r="K42" t="n">
         <v>164.4512348159843</v>
       </c>
       <c r="L42" t="n">
-        <v>221.1249797529757</v>
+        <v>221.1249797529756</v>
       </c>
       <c r="M42" t="n">
         <v>258.0424215802323</v>
       </c>
       <c r="N42" t="n">
-        <v>264.8720366502718</v>
+        <v>264.8720366502717</v>
       </c>
       <c r="O42" t="n">
         <v>242.3061665823587</v>
@@ -34231,10 +34231,10 @@
         <v>194.4720607713373</v>
       </c>
       <c r="Q42" t="n">
-        <v>129.9994224973357</v>
+        <v>105.6272230852946</v>
       </c>
       <c r="R42" t="n">
-        <v>38.8586906674077</v>
+        <v>63.23089007944903</v>
       </c>
       <c r="S42" t="n">
         <v>18.91655972636807</v>
@@ -34243,7 +34243,7 @@
         <v>4.104915794222493</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06700080186434978</v>
+        <v>0.06700080186434977</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8538025680200197</v>
+        <v>0.8538025680200196</v>
       </c>
       <c r="H43" t="n">
-        <v>7.591081013850726</v>
+        <v>7.591081013850725</v>
       </c>
       <c r="I43" t="n">
-        <v>25.67617177282024</v>
+        <v>25.67617177282023</v>
       </c>
       <c r="J43" t="n">
-        <v>60.36384155901539</v>
+        <v>60.36384155901538</v>
       </c>
       <c r="K43" t="n">
-        <v>99.19633472087136</v>
+        <v>99.19633472087135</v>
       </c>
       <c r="L43" t="n">
         <v>126.9371563399946</v>
@@ -34301,7 +34301,7 @@
         <v>133.8374334579018</v>
       </c>
       <c r="N43" t="n">
-        <v>130.6550784316455</v>
+        <v>130.6550784316454</v>
       </c>
       <c r="O43" t="n">
         <v>120.6811120688661</v>
@@ -34319,10 +34319,10 @@
         <v>14.8794502081307</v>
       </c>
       <c r="T43" t="n">
-        <v>3.64806551790372</v>
+        <v>3.648065517903719</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0465710491647284</v>
+        <v>0.04657104916472839</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.425583501655539</v>
+        <v>28.75252608797635</v>
       </c>
       <c r="J6" t="n">
-        <v>24.79846746802021</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K6" t="n">
-        <v>41.31500304752733</v>
+        <v>11.37614111852891</v>
       </c>
       <c r="L6" t="n">
         <v>15.29662563687356</v>
@@ -35038,7 +35038,7 @@
         <v>8.99288945632901</v>
       </c>
       <c r="R6" t="n">
-        <v>4.37408408273069</v>
+        <v>26.12848436996839</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,22 +35093,22 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>4.175752044673201</v>
+        <v>5.857395134976596</v>
       </c>
       <c r="K7" t="n">
-        <v>6.862043349739428</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="L7" t="n">
-        <v>8.781052968829309</v>
+        <v>41.31500304752733</v>
       </c>
       <c r="M7" t="n">
-        <v>12.68346376605933</v>
+        <v>9.258389161154682</v>
       </c>
       <c r="N7" t="n">
-        <v>41.31500304752733</v>
+        <v>9.038245360419708</v>
       </c>
       <c r="O7" t="n">
-        <v>41.31500304752734</v>
+        <v>8.348282472750284</v>
       </c>
       <c r="P7" t="n">
         <v>7.143397865800722</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2.425583501655538</v>
+        <v>28.75252608797635</v>
       </c>
       <c r="J9" t="n">
-        <v>6.655986523460121</v>
+        <v>28.41038681069788</v>
       </c>
       <c r="K9" t="n">
-        <v>41.31500304752734</v>
+        <v>11.37614111852891</v>
       </c>
       <c r="L9" t="n">
         <v>15.29662563687356</v>
@@ -35269,7 +35269,7 @@
         <v>16.76186346679083</v>
       </c>
       <c r="P9" t="n">
-        <v>31.59535412864662</v>
+        <v>13.45287318408649</v>
       </c>
       <c r="Q9" t="n">
         <v>8.99288945632901</v>
@@ -35330,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>4.175752044673201</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.862043349739427</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.781052968829309</v>
+      </c>
+      <c r="M10" t="n">
+        <v>9.258389161154689</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10.5684724707054</v>
+      </c>
+      <c r="O10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K10" t="n">
-        <v>6.862043349739423</v>
-      </c>
-      <c r="L10" t="n">
-        <v>8.781052968829314</v>
-      </c>
-      <c r="M10" t="n">
-        <v>9.258389161154682</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9.038245360419708</v>
-      </c>
-      <c r="O10" t="n">
-        <v>8.348282472750284</v>
-      </c>
       <c r="P10" t="n">
-        <v>38.67269972973595</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q10" t="n">
         <v>41.31500304752734</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
@@ -35415,7 +35415,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35424,10 +35424,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35488,19 +35488,19 @@
         <v>34.56235976916782</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35643,28 +35643,28 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
         <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646689</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
@@ -35740,7 +35740,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742736</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
@@ -35807,28 +35807,28 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572664</v>
+        <v>167.0540751263757</v>
       </c>
       <c r="L16" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M16" t="n">
-        <v>309.1157135712365</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,19 +35880,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816031</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35901,13 +35901,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916864</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
         <v>62.32672164233622</v>
@@ -36044,28 +36044,28 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K19" t="n">
-        <v>239.9453430611635</v>
+        <v>168.5281836696284</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N19" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>118.9554357048098</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207615</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916787</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>361.6495036861061</v>
       </c>
       <c r="L22" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
-        <v>309.1157135712365</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36360,13 +36360,13 @@
         <v>161.5492359308118</v>
       </c>
       <c r="K23" t="n">
-        <v>242.1204273410095</v>
+        <v>242.1204273410094</v>
       </c>
       <c r="L23" t="n">
         <v>300.3717998692363</v>
       </c>
       <c r="M23" t="n">
-        <v>334.2215028042965</v>
+        <v>334.2215028042964</v>
       </c>
       <c r="N23" t="n">
         <v>339.6295561374934</v>
@@ -36375,7 +36375,7 @@
         <v>320.7025591002821</v>
       </c>
       <c r="P23" t="n">
-        <v>273.7122144761563</v>
+        <v>273.7122144761561</v>
       </c>
       <c r="Q23" t="n">
         <v>205.5464740467278</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>35.06375297567638</v>
+        <v>10.69155356363556</v>
       </c>
       <c r="J24" t="n">
-        <v>96.21761819733058</v>
+        <v>96.21761819733054</v>
       </c>
       <c r="K24" t="n">
         <v>164.4512348159843</v>
@@ -36445,7 +36445,7 @@
         <v>221.1249797529756</v>
       </c>
       <c r="M24" t="n">
-        <v>233.6702221681912</v>
+        <v>258.0424215802323</v>
       </c>
       <c r="N24" t="n">
         <v>264.8720366502716</v>
@@ -36460,7 +36460,7 @@
         <v>129.9994224973357</v>
       </c>
       <c r="R24" t="n">
-        <v>63.23089007944918</v>
+        <v>63.23089007944895</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>67.95041655794637</v>
+        <v>60.36384155901538</v>
       </c>
       <c r="K25" t="n">
-        <v>376.730127216968</v>
+        <v>99.19633472087133</v>
       </c>
       <c r="L25" t="n">
-        <v>126.9371563399946</v>
+        <v>129.0577783048167</v>
       </c>
       <c r="M25" t="n">
-        <v>133.8374334579019</v>
+        <v>597.9625518224605</v>
       </c>
       <c r="N25" t="n">
         <v>577.3811422272461</v>
@@ -36533,10 +36533,10 @@
         <v>544.5894446201605</v>
       </c>
       <c r="P25" t="n">
-        <v>454.2806042977645</v>
+        <v>103.2635396812575</v>
       </c>
       <c r="Q25" t="n">
-        <v>71.49432230938555</v>
+        <v>241.3860140915394</v>
       </c>
       <c r="R25" t="n">
         <v>17.18642511310922</v>
@@ -36612,13 +36612,13 @@
         <v>320.7025591002821</v>
       </c>
       <c r="P26" t="n">
-        <v>273.7122144761559</v>
+        <v>273.7122144761561</v>
       </c>
       <c r="Q26" t="n">
         <v>205.5464740467278</v>
       </c>
       <c r="R26" t="n">
-        <v>119.5648500453776</v>
+        <v>119.5648500453772</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>10.69155356363522</v>
+        <v>35.06375297567637</v>
       </c>
       <c r="J27" t="n">
-        <v>96.21761819733055</v>
+        <v>96.21761819733052</v>
       </c>
       <c r="K27" t="n">
-        <v>164.4512348159843</v>
+        <v>140.0790354039435</v>
       </c>
       <c r="L27" t="n">
-        <v>221.1249797529757</v>
+        <v>221.1249797529756</v>
       </c>
       <c r="M27" t="n">
-        <v>258.0424215802324</v>
+        <v>258.0424215802323</v>
       </c>
       <c r="N27" t="n">
-        <v>264.8720366502718</v>
+        <v>264.8720366502716</v>
       </c>
       <c r="O27" t="n">
         <v>242.3061665823586</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>147.8180689980961</v>
+        <v>60.36384155901538</v>
       </c>
       <c r="K28" t="n">
-        <v>376.730127216968</v>
+        <v>99.19633472087135</v>
       </c>
       <c r="L28" t="n">
-        <v>126.9371563399945</v>
+        <v>298.949470086971</v>
       </c>
       <c r="M28" t="n">
         <v>597.9625518224605</v>
       </c>
       <c r="N28" t="n">
-        <v>130.6550784316455</v>
+        <v>577.3811422272461</v>
       </c>
       <c r="O28" t="n">
-        <v>277.4310458288994</v>
+        <v>544.5894446201605</v>
       </c>
       <c r="P28" t="n">
-        <v>454.2806042977645</v>
+        <v>103.2635396812575</v>
       </c>
       <c r="Q28" t="n">
-        <v>241.3860140915394</v>
+        <v>71.49432230938555</v>
       </c>
       <c r="R28" t="n">
         <v>17.18642511310922</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10.69155356363522</v>
+        <v>35.06375297567637</v>
       </c>
       <c r="J30" t="n">
         <v>96.21761819733055</v>
@@ -36922,7 +36922,7 @@
         <v>258.0424215802324</v>
       </c>
       <c r="N30" t="n">
-        <v>264.8720366502718</v>
+        <v>240.4998372382306</v>
       </c>
       <c r="O30" t="n">
         <v>242.3061665823586</v>
@@ -36992,25 +36992,25 @@
         <v>147.8180689980961</v>
       </c>
       <c r="K31" t="n">
-        <v>183.7544210287672</v>
+        <v>151.262622782224</v>
       </c>
       <c r="L31" t="n">
-        <v>126.9371563399945</v>
+        <v>549.371380348036</v>
       </c>
       <c r="M31" t="n">
-        <v>597.9625518224605</v>
+        <v>133.8374334579019</v>
       </c>
       <c r="N31" t="n">
-        <v>577.3811422272461</v>
+        <v>130.6550784316455</v>
       </c>
       <c r="O31" t="n">
         <v>544.5894446201605</v>
       </c>
       <c r="P31" t="n">
-        <v>103.2635396812575</v>
+        <v>454.2806042977645</v>
       </c>
       <c r="Q31" t="n">
-        <v>71.49432230938555</v>
+        <v>241.3860140915394</v>
       </c>
       <c r="R31" t="n">
         <v>17.18642511310922</v>
@@ -37074,7 +37074,7 @@
         <v>242.1204273410095</v>
       </c>
       <c r="L32" t="n">
-        <v>300.3717998692363</v>
+        <v>300.3717998692364</v>
       </c>
       <c r="M32" t="n">
         <v>334.2215028042965</v>
@@ -37147,7 +37147,7 @@
         <v>35.06375297567637</v>
       </c>
       <c r="J33" t="n">
-        <v>71.84541878528941</v>
+        <v>96.21761819733055</v>
       </c>
       <c r="K33" t="n">
         <v>164.4512348159843</v>
@@ -37159,16 +37159,16 @@
         <v>258.0424215802324</v>
       </c>
       <c r="N33" t="n">
-        <v>264.8720366502718</v>
+        <v>264.8720366502716</v>
       </c>
       <c r="O33" t="n">
-        <v>242.3061665823586</v>
+        <v>242.3061665823589</v>
       </c>
       <c r="P33" t="n">
         <v>194.4720607713373</v>
       </c>
       <c r="Q33" t="n">
-        <v>129.9994224973357</v>
+        <v>105.6272230852944</v>
       </c>
       <c r="R33" t="n">
         <v>63.23089007944895</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.36384155901539</v>
+        <v>147.8180689980961</v>
       </c>
       <c r="K34" t="n">
-        <v>99.19633472087138</v>
+        <v>376.730127216968</v>
       </c>
       <c r="L34" t="n">
-        <v>549.371380348036</v>
+        <v>549.3713803480359</v>
       </c>
       <c r="M34" t="n">
         <v>133.8374334579019</v>
       </c>
       <c r="N34" t="n">
-        <v>577.3811422272461</v>
+        <v>130.6550784316455</v>
       </c>
       <c r="O34" t="n">
-        <v>544.5894446201605</v>
+        <v>319.1219401854162</v>
       </c>
       <c r="P34" t="n">
-        <v>316.9667477847506</v>
+        <v>454.2806042977645</v>
       </c>
       <c r="Q34" t="n">
-        <v>71.49432230938555</v>
+        <v>241.3860140915394</v>
       </c>
       <c r="R34" t="n">
         <v>17.18642511310922</v>
@@ -37402,13 +37402,13 @@
         <v>242.3061665823589</v>
       </c>
       <c r="P36" t="n">
-        <v>194.4720607713373</v>
+        <v>170.099861359296</v>
       </c>
       <c r="Q36" t="n">
         <v>129.9994224973357</v>
       </c>
       <c r="R36" t="n">
-        <v>38.8586906674077</v>
+        <v>63.23089007944895</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,25 +37466,25 @@
         <v>60.3638415590154</v>
       </c>
       <c r="K37" t="n">
-        <v>376.730127216968</v>
+        <v>99.19633472087136</v>
       </c>
       <c r="L37" t="n">
-        <v>549.371380348036</v>
+        <v>298.949470086971</v>
       </c>
       <c r="M37" t="n">
-        <v>133.8374334579019</v>
+        <v>597.9625518224605</v>
       </c>
       <c r="N37" t="n">
-        <v>130.6550784316455</v>
+        <v>577.3811422272461</v>
       </c>
       <c r="O37" t="n">
         <v>544.5894446201605</v>
       </c>
       <c r="P37" t="n">
-        <v>454.2806042977643</v>
+        <v>103.2635396812575</v>
       </c>
       <c r="Q37" t="n">
-        <v>103.3727370958763</v>
+        <v>71.49432230938555</v>
       </c>
       <c r="R37" t="n">
         <v>17.18642511310922</v>
@@ -37545,13 +37545,13 @@
         <v>161.5492359308118</v>
       </c>
       <c r="K38" t="n">
-        <v>242.1204273410094</v>
+        <v>242.1204273410095</v>
       </c>
       <c r="L38" t="n">
         <v>300.3717998692362</v>
       </c>
       <c r="M38" t="n">
-        <v>334.2215028042965</v>
+        <v>334.2215028042963</v>
       </c>
       <c r="N38" t="n">
         <v>339.6295561374934</v>
@@ -37560,13 +37560,13 @@
         <v>320.7025591002823</v>
       </c>
       <c r="P38" t="n">
-        <v>273.7122144761559</v>
+        <v>273.7122144761561</v>
       </c>
       <c r="Q38" t="n">
         <v>205.5464740467278</v>
       </c>
       <c r="R38" t="n">
-        <v>119.5648500453776</v>
+        <v>119.5648500453772</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>35.06375297567637</v>
       </c>
       <c r="J39" t="n">
-        <v>96.21761819733055</v>
+        <v>71.84541878528972</v>
       </c>
       <c r="K39" t="n">
         <v>164.4512348159843</v>
       </c>
       <c r="L39" t="n">
-        <v>221.1249797529757</v>
+        <v>221.1249797529756</v>
       </c>
       <c r="M39" t="n">
-        <v>258.0424215802324</v>
+        <v>258.0424215802323</v>
       </c>
       <c r="N39" t="n">
         <v>264.8720366502716</v>
       </c>
       <c r="O39" t="n">
-        <v>242.3061665823589</v>
+        <v>242.3061665823586</v>
       </c>
       <c r="P39" t="n">
         <v>194.4720607713373</v>
       </c>
       <c r="Q39" t="n">
-        <v>105.6272230852944</v>
+        <v>129.9994224973357</v>
       </c>
       <c r="R39" t="n">
         <v>63.23089007944895</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>147.8180689980961</v>
+        <v>60.36384155901538</v>
       </c>
       <c r="K40" t="n">
-        <v>99.19633472087139</v>
+        <v>99.19633472087135</v>
       </c>
       <c r="L40" t="n">
-        <v>211.4952426478903</v>
+        <v>549.371380348036</v>
       </c>
       <c r="M40" t="n">
         <v>597.9625518224605</v>
@@ -37715,7 +37715,7 @@
         <v>577.3811422272461</v>
       </c>
       <c r="O40" t="n">
-        <v>544.5894446201605</v>
+        <v>294.1675343590955</v>
       </c>
       <c r="P40" t="n">
         <v>103.2635396812575</v>
@@ -37797,13 +37797,13 @@
         <v>320.7025591002821</v>
       </c>
       <c r="P41" t="n">
-        <v>273.7122144761559</v>
+        <v>273.7122144761561</v>
       </c>
       <c r="Q41" t="n">
         <v>205.5464740467278</v>
       </c>
       <c r="R41" t="n">
-        <v>119.5648500453776</v>
+        <v>119.5648500453772</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>35.06375297567637</v>
       </c>
       <c r="J42" t="n">
-        <v>96.21761819733055</v>
+        <v>96.21761819733052</v>
       </c>
       <c r="K42" t="n">
         <v>164.4512348159843</v>
@@ -37867,22 +37867,22 @@
         <v>221.1249797529757</v>
       </c>
       <c r="M42" t="n">
-        <v>258.0424215802324</v>
+        <v>258.0424215802323</v>
       </c>
       <c r="N42" t="n">
-        <v>264.8720366502716</v>
+        <v>264.8720366502718</v>
       </c>
       <c r="O42" t="n">
-        <v>242.3061665823589</v>
+        <v>242.3061665823586</v>
       </c>
       <c r="P42" t="n">
         <v>194.4720607713373</v>
       </c>
       <c r="Q42" t="n">
-        <v>129.9994224973357</v>
+        <v>105.6272230852946</v>
       </c>
       <c r="R42" t="n">
-        <v>38.8586906674077</v>
+        <v>63.23089007944895</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>67.95041655794681</v>
+        <v>60.36384155901538</v>
       </c>
       <c r="K43" t="n">
-        <v>376.730127216968</v>
+        <v>99.19633472087135</v>
       </c>
       <c r="L43" t="n">
-        <v>126.9371563399946</v>
+        <v>298.949470086971</v>
       </c>
       <c r="M43" t="n">
-        <v>133.8374334579019</v>
+        <v>597.9625518224605</v>
       </c>
       <c r="N43" t="n">
         <v>577.3811422272461</v>
@@ -37955,7 +37955,7 @@
         <v>544.5894446201605</v>
       </c>
       <c r="P43" t="n">
-        <v>454.2806042977645</v>
+        <v>103.2635396812575</v>
       </c>
       <c r="Q43" t="n">
         <v>71.49432230938555</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>147.8180689980961</v>
+        <v>60.3638415590154</v>
       </c>
       <c r="K46" t="n">
-        <v>376.730127216968</v>
+        <v>99.19633472087136</v>
       </c>
       <c r="L46" t="n">
-        <v>549.3713803480359</v>
+        <v>298.949470086971</v>
       </c>
       <c r="M46" t="n">
-        <v>133.8374334579019</v>
+        <v>597.9625518224605</v>
       </c>
       <c r="N46" t="n">
-        <v>130.6550784316455</v>
+        <v>577.3811422272461</v>
       </c>
       <c r="O46" t="n">
-        <v>319.1219401854166</v>
+        <v>544.5894446201605</v>
       </c>
       <c r="P46" t="n">
-        <v>454.2806042977645</v>
+        <v>103.2635396812575</v>
       </c>
       <c r="Q46" t="n">
-        <v>241.3860140915394</v>
+        <v>71.49432230938555</v>
       </c>
       <c r="R46" t="n">
         <v>17.18642511310922</v>
